--- a/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003964997850335</v>
+        <v>1.002035251669052</v>
       </c>
       <c r="D3">
         <v>0.9868703639704505</v>
       </c>
       <c r="E3">
-        <v>1.002035251669052</v>
+        <v>0.9868703639704505</v>
       </c>
       <c r="F3">
         <v>1.003964997850335</v>
       </c>
       <c r="G3">
+        <v>1.003964997850335</v>
+      </c>
+      <c r="H3">
+        <v>0.9952502692285891</v>
+      </c>
+      <c r="I3">
         <v>1.002781419064708</v>
       </c>
-      <c r="H3">
-        <v>0.9952502692285892</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.002568724690514</v>
-      </c>
-      <c r="J3">
-        <v>0.9868703639704505</v>
       </c>
       <c r="K3">
         <v>1.003964997850335</v>
@@ -728,7 +680,7 @@
         <v>0.9989118377456082</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008076540804246</v>
+        <v>1.003747831669749</v>
       </c>
       <c r="D4">
         <v>0.9748632270115449</v>
       </c>
       <c r="E4">
-        <v>1.003747831669749</v>
+        <v>0.9748632270115449</v>
       </c>
       <c r="F4">
         <v>1.008076540804246</v>
       </c>
       <c r="G4">
-        <v>1.005155112297771</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="H4">
         <v>0.9907689160690064</v>
       </c>
       <c r="I4">
+        <v>1.005155112297771</v>
+      </c>
+      <c r="J4">
         <v>1.004953677216206</v>
-      </c>
-      <c r="J4">
-        <v>0.9748632270115449</v>
       </c>
       <c r="K4">
         <v>1.008076540804246</v>
@@ -790,7 +742,7 @@
         <v>0.997927550844754</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.014151341784344</v>
+        <v>1.007713872798316</v>
       </c>
       <c r="D5">
-        <v>0.9519300493538951</v>
+        <v>0.9519300493538949</v>
       </c>
       <c r="E5">
-        <v>1.007713872798316</v>
+        <v>0.9519300493538949</v>
       </c>
       <c r="F5">
         <v>1.014151341784344</v>
       </c>
       <c r="G5">
-        <v>1.010895208972442</v>
+        <v>1.014151341784344</v>
       </c>
       <c r="H5">
         <v>0.9824023634828642</v>
       </c>
       <c r="I5">
+        <v>1.010895208972442</v>
+      </c>
+      <c r="J5">
         <v>1.009473479247479</v>
-      </c>
-      <c r="J5">
-        <v>0.9519300493538951</v>
       </c>
       <c r="K5">
         <v>1.014151341784344</v>
@@ -828,19 +780,19 @@
         <v>1.007713872798316</v>
       </c>
       <c r="M5">
-        <v>0.9798219610761054</v>
+        <v>0.9798219610761053</v>
       </c>
       <c r="N5">
-        <v>0.9798219610761054</v>
+        <v>0.9798219610761053</v>
       </c>
       <c r="O5">
         <v>0.9806820952116917</v>
       </c>
       <c r="P5">
-        <v>0.9912650879788517</v>
+        <v>0.9912650879788516</v>
       </c>
       <c r="Q5">
-        <v>0.9912650879788517</v>
+        <v>0.9912650879788516</v>
       </c>
       <c r="R5">
         <v>0.9969866514302248</v>
@@ -849,10 +801,10 @@
         <v>0.9969866514302248</v>
       </c>
       <c r="T5">
-        <v>0.9960943859398901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.99609438593989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.020249549403172</v>
+        <v>1.011333047954771</v>
       </c>
       <c r="D6">
         <v>0.9292030832980507</v>
       </c>
       <c r="E6">
-        <v>1.011333047954771</v>
+        <v>0.9292030832980507</v>
       </c>
       <c r="F6">
-        <v>1.020249549403172</v>
+        <v>1.020249549403173</v>
       </c>
       <c r="G6">
-        <v>1.017112053712685</v>
+        <v>1.020249549403173</v>
       </c>
       <c r="H6">
         <v>0.9744453017110146</v>
       </c>
       <c r="I6">
+        <v>1.017112053712685</v>
+      </c>
+      <c r="J6">
         <v>1.013648141617359</v>
       </c>
-      <c r="J6">
-        <v>0.9292030832980507</v>
-      </c>
       <c r="K6">
-        <v>1.020249549403172</v>
+        <v>1.020249549403173</v>
       </c>
       <c r="L6">
         <v>1.011333047954771</v>
@@ -911,10 +863,10 @@
         <v>0.9952588075147917</v>
       </c>
       <c r="T6">
-        <v>0.9943318629495086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9943318629495087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +874,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999655404125093</v>
+        <v>1.000288612920552</v>
       </c>
       <c r="D7">
-        <v>0.9992950170219053</v>
+        <v>0.9992950170219054</v>
       </c>
       <c r="E7">
-        <v>1.000288612920551</v>
+        <v>0.9992950170219054</v>
       </c>
       <c r="F7">
         <v>0.9999655404125093</v>
       </c>
       <c r="G7">
+        <v>0.9999655404125093</v>
+      </c>
+      <c r="H7">
+        <v>0.9996142550493446</v>
+      </c>
+      <c r="I7">
         <v>1.000551028486647</v>
       </c>
-      <c r="H7">
-        <v>0.9996142550493444</v>
-      </c>
-      <c r="I7">
-        <v>1.000191519808795</v>
-      </c>
       <c r="J7">
-        <v>0.9992950170219053</v>
+        <v>1.000191519808794</v>
       </c>
       <c r="K7">
         <v>0.9999655404125093</v>
       </c>
       <c r="L7">
-        <v>1.000288612920551</v>
+        <v>1.000288612920552</v>
       </c>
       <c r="M7">
-        <v>0.9997918149712284</v>
+        <v>0.9997918149712286</v>
       </c>
       <c r="N7">
-        <v>0.9997918149712284</v>
+        <v>0.9997918149712286</v>
       </c>
       <c r="O7">
-        <v>0.9997326283306004</v>
+        <v>0.9997326283306006</v>
       </c>
       <c r="P7">
-        <v>0.9998497234516553</v>
+        <v>0.9998497234516556</v>
       </c>
       <c r="Q7">
-        <v>0.9998497234516553</v>
+        <v>0.9998497234516556</v>
       </c>
       <c r="R7">
-        <v>0.9998786776918689</v>
+        <v>0.999878677691869</v>
       </c>
       <c r="S7">
-        <v>0.9998786776918689</v>
+        <v>0.999878677691869</v>
       </c>
       <c r="T7">
         <v>0.9999843289499587</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000229189164147</v>
+        <v>1.000700476361845</v>
       </c>
       <c r="D8">
         <v>0.997879275739615</v>
       </c>
       <c r="E8">
-        <v>1.000700476361845</v>
+        <v>0.997879275739615</v>
       </c>
       <c r="F8">
         <v>1.000229189164147</v>
       </c>
       <c r="G8">
-        <v>1.001349494325245</v>
+        <v>1.000229189164147</v>
       </c>
       <c r="H8">
         <v>0.9988712308688232</v>
       </c>
       <c r="I8">
+        <v>1.001349494325245</v>
+      </c>
+      <c r="J8">
         <v>1.000554423597525</v>
-      </c>
-      <c r="J8">
-        <v>0.997879275739615</v>
       </c>
       <c r="K8">
         <v>1.000229189164147</v>
@@ -1023,22 +975,22 @@
         <v>0.9991503276567609</v>
       </c>
       <c r="P8">
+        <v>0.9996029804218689</v>
+      </c>
+      <c r="Q8">
         <v>0.9996029804218688</v>
       </c>
-      <c r="Q8">
-        <v>0.9996029804218689</v>
-      </c>
       <c r="R8">
-        <v>0.9997595326074384</v>
+        <v>0.9997595326074383</v>
       </c>
       <c r="S8">
-        <v>0.9997595326074384</v>
+        <v>0.9997595326074383</v>
       </c>
       <c r="T8">
-        <v>0.9999306816762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999306816761999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000889714836048</v>
+        <v>1.00072008879686</v>
       </c>
       <c r="D9">
-        <v>0.9969592385996345</v>
+        <v>0.9969592385996348</v>
       </c>
       <c r="E9">
-        <v>1.00072008879686</v>
+        <v>0.9969592385996348</v>
       </c>
       <c r="F9">
         <v>1.000889714836048</v>
       </c>
       <c r="G9">
-        <v>1.001463724951388</v>
+        <v>1.000889714836048</v>
       </c>
       <c r="H9">
         <v>0.9984281877169934</v>
       </c>
       <c r="I9">
+        <v>1.001463724951388</v>
+      </c>
+      <c r="J9">
         <v>1.000755830893859</v>
-      </c>
-      <c r="J9">
-        <v>0.9969592385996345</v>
       </c>
       <c r="K9">
         <v>1.000889714836048</v>
@@ -1100,7 +1052,7 @@
         <v>0.9998694642991306</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00122767303185</v>
+        <v>1.001839335445311</v>
       </c>
       <c r="D10">
         <v>0.9935610833636789</v>
       </c>
       <c r="E10">
-        <v>1.001839335445311</v>
+        <v>0.9935610833636789</v>
       </c>
       <c r="F10">
         <v>1.00122767303185</v>
       </c>
       <c r="G10">
-        <v>1.003684530467892</v>
+        <v>1.00122767303185</v>
       </c>
       <c r="H10">
         <v>0.9966325223948199</v>
       </c>
       <c r="I10">
+        <v>1.003684530467892</v>
+      </c>
+      <c r="J10">
         <v>1.001632962732913</v>
-      </c>
-      <c r="J10">
-        <v>0.9935610833636789</v>
       </c>
       <c r="K10">
         <v>1.00122767303185</v>
@@ -1162,7 +1114,7 @@
         <v>0.9997630179060774</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003781631770135</v>
+        <v>1.002424286863152</v>
       </c>
       <c r="D11">
         <v>0.9888695511265402</v>
       </c>
       <c r="E11">
-        <v>1.002424286863152</v>
+        <v>0.9888695511265402</v>
       </c>
       <c r="F11">
         <v>1.003781631770135</v>
       </c>
       <c r="G11">
-        <v>1.004759929457045</v>
+        <v>1.003781631770135</v>
       </c>
       <c r="H11">
         <v>0.9942566907695909</v>
       </c>
       <c r="I11">
+        <v>1.004759929457045</v>
+      </c>
+      <c r="J11">
         <v>1.002770012423325</v>
-      </c>
-      <c r="J11">
-        <v>0.9888695511265402</v>
       </c>
       <c r="K11">
         <v>1.003781631770135</v>
@@ -1224,7 +1176,7 @@
         <v>0.9994770170682979</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9423444188058533</v>
+        <v>0.9846342279396676</v>
       </c>
       <c r="D12">
         <v>1.077850615863723</v>
       </c>
       <c r="E12">
-        <v>0.9846342279396677</v>
+        <v>1.077850615863723</v>
       </c>
       <c r="F12">
         <v>0.9423444188058533</v>
       </c>
       <c r="G12">
-        <v>0.8743019070197311</v>
+        <v>0.9423444188058533</v>
       </c>
       <c r="H12">
         <v>1.083254412507265</v>
       </c>
       <c r="I12">
-        <v>0.9724519891830442</v>
+        <v>0.8743019070197312</v>
       </c>
       <c r="J12">
-        <v>1.077850615863723</v>
+        <v>0.9724519891830443</v>
       </c>
       <c r="K12">
         <v>0.9423444188058533</v>
       </c>
       <c r="L12">
-        <v>0.9846342279396677</v>
+        <v>0.9846342279396676</v>
       </c>
       <c r="M12">
         <v>1.031242421901695</v>
@@ -1277,16 +1229,16 @@
         <v>1.001609754203081</v>
       </c>
       <c r="R12">
-        <v>0.9867934203537744</v>
+        <v>0.9867934203537743</v>
       </c>
       <c r="S12">
-        <v>0.9867934203537744</v>
+        <v>0.9867934203537743</v>
       </c>
       <c r="T12">
         <v>0.9891395952198808</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.025921695718824</v>
+        <v>0.9624407429395495</v>
       </c>
       <c r="D13">
         <v>1.10987825422186</v>
       </c>
       <c r="E13">
-        <v>0.9624407429395495</v>
+        <v>1.10987825422186</v>
       </c>
       <c r="F13">
         <v>1.025921695718824</v>
       </c>
       <c r="G13">
-        <v>1.004824163618326</v>
+        <v>1.025921695718824</v>
       </c>
       <c r="H13">
         <v>1.015031001414542</v>
       </c>
       <c r="I13">
+        <v>1.004824163618326</v>
+      </c>
+      <c r="J13">
         <v>0.9808753779544395</v>
-      </c>
-      <c r="J13">
-        <v>1.10987825422186</v>
       </c>
       <c r="K13">
         <v>1.025921695718824</v>
@@ -1348,7 +1300,7 @@
         <v>1.016495205977923</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7501841524247997</v>
+        <v>0.9159800444280666</v>
       </c>
       <c r="D14">
         <v>1.63771546562962</v>
       </c>
       <c r="E14">
-        <v>0.9159800444280666</v>
+        <v>1.63771546562962</v>
       </c>
       <c r="F14">
-        <v>0.7501841524247997</v>
+        <v>0.7501841524247995</v>
       </c>
       <c r="G14">
-        <v>0.9228204328098136</v>
+        <v>0.7501841524247995</v>
       </c>
       <c r="H14">
         <v>1.243374808094663</v>
       </c>
       <c r="I14">
+        <v>0.9228204328098139</v>
+      </c>
+      <c r="J14">
         <v>0.8674354756491461</v>
       </c>
-      <c r="J14">
-        <v>1.63771546562962</v>
-      </c>
       <c r="K14">
-        <v>0.7501841524247997</v>
+        <v>0.7501841524247995</v>
       </c>
       <c r="L14">
         <v>0.9159800444280666</v>
@@ -1410,7 +1362,7 @@
         <v>1.056251729839351</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,34 +1370,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9900428410959422</v>
+        <v>0.9817792847120264</v>
       </c>
       <c r="D15">
         <v>0.9738478690681243</v>
       </c>
       <c r="E15">
-        <v>0.9817792847120265</v>
+        <v>0.9738478690681243</v>
       </c>
       <c r="F15">
         <v>0.9900428410959422</v>
       </c>
       <c r="G15">
-        <v>0.8182991208147528</v>
+        <v>0.9900428410959422</v>
       </c>
       <c r="H15">
         <v>1.075123391084751</v>
       </c>
       <c r="I15">
+        <v>0.8182991208147528</v>
+      </c>
+      <c r="J15">
         <v>0.9842458139748651</v>
-      </c>
-      <c r="J15">
-        <v>0.9738478690681243</v>
       </c>
       <c r="K15">
         <v>0.9900428410959422</v>
       </c>
       <c r="L15">
-        <v>0.9817792847120265</v>
+        <v>0.9817792847120264</v>
       </c>
       <c r="M15">
         <v>0.9778135768900753</v>
@@ -1472,7 +1424,7 @@
         <v>0.9705563867917436</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9981705734745555</v>
+        <v>1.040636519386113</v>
       </c>
       <c r="D16">
-        <v>1.0006835077222</v>
+        <v>0.7551979231517832</v>
       </c>
       <c r="E16">
-        <v>1.000686126301871</v>
+        <v>0.7551979231517832</v>
       </c>
       <c r="F16">
-        <v>0.9981705734745555</v>
+        <v>1.072400853424824</v>
       </c>
       <c r="G16">
-        <v>1.001732631684872</v>
+        <v>1.072400853424824</v>
       </c>
       <c r="H16">
-        <v>1.000047053300127</v>
+        <v>0.9064872947773508</v>
       </c>
       <c r="I16">
-        <v>0.9999427151774736</v>
+        <v>1.062983540107765</v>
       </c>
       <c r="J16">
-        <v>1.0006835077222</v>
+        <v>1.049481401900177</v>
       </c>
       <c r="K16">
-        <v>0.9981705734745555</v>
+        <v>1.072400853424824</v>
       </c>
       <c r="L16">
-        <v>1.000686126301871</v>
+        <v>1.040636519386113</v>
       </c>
       <c r="M16">
-        <v>1.000684817012035</v>
+        <v>0.8979172212689481</v>
       </c>
       <c r="N16">
-        <v>1.000684817012035</v>
+        <v>0.8979172212689481</v>
       </c>
       <c r="O16">
-        <v>1.000472229108066</v>
+        <v>0.9007739124384156</v>
       </c>
       <c r="P16">
-        <v>0.9998467358328753</v>
+        <v>0.9560784319875735</v>
       </c>
       <c r="Q16">
-        <v>0.9998467358328753</v>
+        <v>0.9560784319875734</v>
       </c>
       <c r="R16">
-        <v>0.9994276952432953</v>
+        <v>0.9851590373468859</v>
       </c>
       <c r="S16">
-        <v>0.9994276952432953</v>
+        <v>0.9851590373468859</v>
       </c>
       <c r="T16">
-        <v>1.000210434610183</v>
+        <v>0.9811979221246688</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002340113333077</v>
+        <v>1.038136160477342</v>
       </c>
       <c r="D17">
-        <v>0.9980822192435795</v>
+        <v>0.8107294300157167</v>
       </c>
       <c r="E17">
-        <v>0.9995087254452814</v>
+        <v>0.8107294300157167</v>
       </c>
       <c r="F17">
-        <v>1.002340113333077</v>
+        <v>1.045644034771311</v>
       </c>
       <c r="G17">
-        <v>0.9982140795159123</v>
+        <v>1.045644034771311</v>
       </c>
       <c r="H17">
-        <v>0.9994635346055966</v>
+        <v>0.9230244925709838</v>
       </c>
       <c r="I17">
-        <v>1.000349993892073</v>
+        <v>1.065944193281495</v>
       </c>
       <c r="J17">
-        <v>0.9980822192435795</v>
+        <v>1.040004623655097</v>
       </c>
       <c r="K17">
-        <v>1.002340113333077</v>
+        <v>1.045644034771311</v>
       </c>
       <c r="L17">
-        <v>0.9995087254452814</v>
+        <v>1.038136160477342</v>
       </c>
       <c r="M17">
-        <v>0.9987954723444304</v>
+        <v>0.9244327952465294</v>
       </c>
       <c r="N17">
-        <v>0.9987954723444304</v>
+        <v>0.9244327952465294</v>
       </c>
       <c r="O17">
-        <v>0.9990181597648191</v>
+        <v>0.9239633610213476</v>
       </c>
       <c r="P17">
-        <v>0.9999770193406462</v>
+        <v>0.9648365417547901</v>
       </c>
       <c r="Q17">
-        <v>0.999977019340646</v>
+        <v>0.9648365417547901</v>
       </c>
       <c r="R17">
-        <v>1.000567792838754</v>
+        <v>0.9850384150089204</v>
       </c>
       <c r="S17">
-        <v>1.000567792838754</v>
+        <v>0.9850384150089204</v>
       </c>
       <c r="T17">
-        <v>0.9996597776725867</v>
+        <v>0.9872471557953243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9964393185753668</v>
+        <v>1.032687194737194</v>
       </c>
       <c r="D18">
-        <v>0.9981266846005976</v>
+        <v>0.9216403918009728</v>
       </c>
       <c r="E18">
-        <v>1.00235188171285</v>
+        <v>0.9216403918009728</v>
       </c>
       <c r="F18">
-        <v>0.9964393185753668</v>
+        <v>0.9930970501783351</v>
       </c>
       <c r="G18">
-        <v>1.00562817619499</v>
+        <v>0.9930970501783351</v>
       </c>
       <c r="H18">
-        <v>0.9986951268109231</v>
+        <v>0.9561561614623064</v>
       </c>
       <c r="I18">
-        <v>1.000550059148487</v>
+        <v>1.070991879199201</v>
       </c>
       <c r="J18">
-        <v>0.9981266846005976</v>
+        <v>1.021013951102195</v>
       </c>
       <c r="K18">
-        <v>0.9964393185753668</v>
+        <v>0.9930970501783351</v>
       </c>
       <c r="L18">
-        <v>1.00235188171285</v>
+        <v>1.032687194737194</v>
       </c>
       <c r="M18">
-        <v>1.000239283156724</v>
+        <v>0.9771637932690833</v>
       </c>
       <c r="N18">
-        <v>1.000239283156724</v>
+        <v>0.9771637932690833</v>
       </c>
       <c r="O18">
-        <v>0.9997245643747902</v>
+        <v>0.9701612493334911</v>
       </c>
       <c r="P18">
-        <v>0.9989726282962715</v>
+        <v>0.9824748789055006</v>
       </c>
       <c r="Q18">
-        <v>0.9989726282962715</v>
+        <v>0.9824748789055006</v>
       </c>
       <c r="R18">
-        <v>0.9983393008660453</v>
+        <v>0.9851304217237091</v>
       </c>
       <c r="S18">
-        <v>0.9983393008660453</v>
+        <v>0.9851304217237091</v>
       </c>
       <c r="T18">
-        <v>1.000298541173869</v>
+        <v>0.9992644380800338</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.043265038757767</v>
+      </c>
+      <c r="D19">
+        <v>0.9081613861458562</v>
+      </c>
+      <c r="E19">
+        <v>0.9081613861458562</v>
+      </c>
+      <c r="F19">
+        <v>0.9785948195097198</v>
+      </c>
+      <c r="G19">
+        <v>0.9785948195097198</v>
+      </c>
+      <c r="H19">
+        <v>0.9520845553740876</v>
+      </c>
+      <c r="I19">
+        <v>1.084618288073668</v>
+      </c>
+      <c r="J19">
+        <v>1.024231964145669</v>
+      </c>
+      <c r="K19">
+        <v>0.9785948195097198</v>
+      </c>
+      <c r="L19">
+        <v>1.043265038757767</v>
+      </c>
+      <c r="M19">
+        <v>0.9757132124518115</v>
+      </c>
+      <c r="N19">
+        <v>0.9757132124518115</v>
+      </c>
+      <c r="O19">
+        <v>0.9678369934259036</v>
+      </c>
+      <c r="P19">
+        <v>0.976673748137781</v>
+      </c>
+      <c r="Q19">
+        <v>0.976673748137781</v>
+      </c>
+      <c r="R19">
+        <v>0.9771540159807657</v>
+      </c>
+      <c r="S19">
+        <v>0.9771540159807657</v>
+      </c>
+      <c r="T19">
+        <v>0.9984926753344613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000686126301871</v>
+      </c>
+      <c r="D20">
+        <v>1.000683507722199</v>
+      </c>
+      <c r="E20">
+        <v>1.000683507722199</v>
+      </c>
+      <c r="F20">
+        <v>0.9981705734745558</v>
+      </c>
+      <c r="G20">
+        <v>0.9981705734745558</v>
+      </c>
+      <c r="H20">
+        <v>1.000047053300127</v>
+      </c>
+      <c r="I20">
+        <v>1.001732631684872</v>
+      </c>
+      <c r="J20">
+        <v>0.9999427151774737</v>
+      </c>
+      <c r="K20">
+        <v>0.9981705734745558</v>
+      </c>
+      <c r="L20">
+        <v>1.000686126301871</v>
+      </c>
+      <c r="M20">
+        <v>1.000684817012035</v>
+      </c>
+      <c r="N20">
+        <v>1.000684817012035</v>
+      </c>
+      <c r="O20">
+        <v>1.000472229108066</v>
+      </c>
+      <c r="P20">
+        <v>0.9998467358328753</v>
+      </c>
+      <c r="Q20">
+        <v>0.9998467358328753</v>
+      </c>
+      <c r="R20">
+        <v>0.9994276952432954</v>
+      </c>
+      <c r="S20">
+        <v>0.9994276952432954</v>
+      </c>
+      <c r="T20">
+        <v>1.000210434610183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9995087254452814</v>
+      </c>
+      <c r="D21">
+        <v>0.9980822192435786</v>
+      </c>
+      <c r="E21">
+        <v>0.9980822192435786</v>
+      </c>
+      <c r="F21">
+        <v>1.002340113333077</v>
+      </c>
+      <c r="G21">
+        <v>1.002340113333077</v>
+      </c>
+      <c r="H21">
+        <v>0.9994635346055966</v>
+      </c>
+      <c r="I21">
+        <v>0.9982140795159135</v>
+      </c>
+      <c r="J21">
+        <v>1.000349993892073</v>
+      </c>
+      <c r="K21">
+        <v>1.002340113333077</v>
+      </c>
+      <c r="L21">
+        <v>0.9995087254452814</v>
+      </c>
+      <c r="M21">
+        <v>0.99879547234443</v>
+      </c>
+      <c r="N21">
+        <v>0.99879547234443</v>
+      </c>
+      <c r="O21">
+        <v>0.9990181597648188</v>
+      </c>
+      <c r="P21">
+        <v>0.9999770193406459</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999770193406458</v>
+      </c>
+      <c r="R21">
+        <v>1.000567792838754</v>
+      </c>
+      <c r="S21">
+        <v>1.000567792838754</v>
+      </c>
+      <c r="T21">
+        <v>0.9996597776725867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.00235188171285</v>
+      </c>
+      <c r="D22">
+        <v>0.9981266846005976</v>
+      </c>
+      <c r="E22">
+        <v>0.9981266846005976</v>
+      </c>
+      <c r="F22">
+        <v>0.9964393185753669</v>
+      </c>
+      <c r="G22">
+        <v>0.9964393185753669</v>
+      </c>
+      <c r="H22">
+        <v>0.9986951268109231</v>
+      </c>
+      <c r="I22">
+        <v>1.005628176194989</v>
+      </c>
+      <c r="J22">
+        <v>1.000550059148487</v>
+      </c>
+      <c r="K22">
+        <v>0.9964393185753669</v>
+      </c>
+      <c r="L22">
+        <v>1.00235188171285</v>
+      </c>
+      <c r="M22">
+        <v>1.000239283156724</v>
+      </c>
+      <c r="N22">
+        <v>1.000239283156724</v>
+      </c>
+      <c r="O22">
+        <v>0.9997245643747902</v>
+      </c>
+      <c r="P22">
+        <v>0.9989726282962715</v>
+      </c>
+      <c r="Q22">
+        <v>0.9989726282962715</v>
+      </c>
+      <c r="R22">
+        <v>0.9983393008660454</v>
+      </c>
+      <c r="S22">
+        <v>0.9983393008660454</v>
+      </c>
+      <c r="T22">
+        <v>1.000298541173869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.008113079963895</v>
+      </c>
+      <c r="D23">
+        <v>0.9974811953905014</v>
+      </c>
+      <c r="E23">
+        <v>0.9974811953905014</v>
+      </c>
+      <c r="F23">
         <v>0.9842945987992641</v>
       </c>
-      <c r="D19">
-        <v>0.9974811953905014</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9842945987992641</v>
+      </c>
+      <c r="H23">
+        <v>0.9974404873054427</v>
+      </c>
+      <c r="I23">
+        <v>1.019616000973442</v>
+      </c>
+      <c r="J23">
+        <v>1.001042597457913</v>
+      </c>
+      <c r="K23">
+        <v>0.9842945987992641</v>
+      </c>
+      <c r="L23">
         <v>1.008113079963895</v>
       </c>
-      <c r="F19">
-        <v>0.9842945987992641</v>
-      </c>
-      <c r="G19">
-        <v>1.019616000973442</v>
-      </c>
-      <c r="H19">
-        <v>0.9974404873054427</v>
-      </c>
-      <c r="I19">
-        <v>1.001042597457913</v>
-      </c>
-      <c r="J19">
-        <v>0.9974811953905014</v>
-      </c>
-      <c r="K19">
-        <v>0.9842945987992641</v>
-      </c>
-      <c r="L19">
-        <v>1.008113079963895</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.002797137677198</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.002797137677198</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.00101158755328</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9966296247178867</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9966296247178867</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9935458682382311</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9935458682382311</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.001331326648409</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002035251669052</v>
+        <v>1.040165856786745</v>
       </c>
       <c r="D3">
-        <v>0.9868703639704505</v>
+        <v>0.8980296310864576</v>
       </c>
       <c r="E3">
-        <v>0.9868703639704505</v>
+        <v>0.8980296310864576</v>
       </c>
       <c r="F3">
-        <v>1.003964997850335</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="G3">
-        <v>1.003964997850335</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="H3">
-        <v>0.9952502692285891</v>
+        <v>0.9447570561743522</v>
       </c>
       <c r="I3">
-        <v>1.002781419064708</v>
+        <v>1.083517109884723</v>
       </c>
       <c r="J3">
-        <v>1.002568724690514</v>
+        <v>1.02690461223343</v>
       </c>
       <c r="K3">
-        <v>1.003964997850335</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="L3">
-        <v>1.002035251669052</v>
+        <v>1.040165856786745</v>
       </c>
       <c r="M3">
-        <v>0.9944528078197514</v>
+        <v>0.9690977439366013</v>
       </c>
       <c r="N3">
-        <v>0.9944528078197514</v>
+        <v>0.9690977439366013</v>
       </c>
       <c r="O3">
-        <v>0.994718628289364</v>
+        <v>0.960984181349185</v>
       </c>
       <c r="P3">
-        <v>0.9976235378299458</v>
+        <v>0.9778528518679165</v>
       </c>
       <c r="Q3">
-        <v>0.9976235378299458</v>
+        <v>0.9778528518679165</v>
       </c>
       <c r="R3">
-        <v>0.999208902835043</v>
+        <v>0.982230405833574</v>
       </c>
       <c r="S3">
-        <v>0.999208902835043</v>
+        <v>0.982230405833574</v>
       </c>
       <c r="T3">
-        <v>0.9989118377456082</v>
+        <v>0.9981228889827092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003747831669749</v>
+        <v>1.036427238319981</v>
       </c>
       <c r="D4">
-        <v>0.9748632270115449</v>
+        <v>0.9110750527786088</v>
       </c>
       <c r="E4">
-        <v>0.9748632270115449</v>
+        <v>0.9110750527786088</v>
       </c>
       <c r="F4">
-        <v>1.008076540804246</v>
+        <v>0.9933423466352916</v>
       </c>
       <c r="G4">
-        <v>1.008076540804246</v>
+        <v>0.9933423466352916</v>
       </c>
       <c r="H4">
-        <v>0.9907689160690064</v>
+        <v>0.9509599865421154</v>
       </c>
       <c r="I4">
-        <v>1.005155112297771</v>
+        <v>1.077348137801895</v>
       </c>
       <c r="J4">
-        <v>1.004953677216206</v>
+        <v>1.023708251515094</v>
       </c>
       <c r="K4">
-        <v>1.008076540804246</v>
+        <v>0.9933423466352916</v>
       </c>
       <c r="L4">
-        <v>1.003747831669749</v>
+        <v>1.036427238319981</v>
       </c>
       <c r="M4">
-        <v>0.989305529340647</v>
+        <v>0.9737511455492949</v>
       </c>
       <c r="N4">
-        <v>0.989305529340647</v>
+        <v>0.9737511455492949</v>
       </c>
       <c r="O4">
-        <v>0.9897933249167669</v>
+        <v>0.9661540925469018</v>
       </c>
       <c r="P4">
-        <v>0.9955625331618467</v>
+        <v>0.9802815459112938</v>
       </c>
       <c r="Q4">
-        <v>0.9955625331618467</v>
+        <v>0.9802815459112938</v>
       </c>
       <c r="R4">
-        <v>0.9986910350724465</v>
+        <v>0.9835467460922933</v>
       </c>
       <c r="S4">
-        <v>0.9986910350724465</v>
+        <v>0.9835467460922933</v>
       </c>
       <c r="T4">
-        <v>0.997927550844754</v>
+        <v>0.9988101689321643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.007713872798316</v>
+        <v>1.047203542075472</v>
       </c>
       <c r="D5">
-        <v>0.9519300493538949</v>
+        <v>0.873420222113207</v>
       </c>
       <c r="E5">
-        <v>0.9519300493538949</v>
+        <v>0.873420222113207</v>
       </c>
       <c r="F5">
-        <v>1.014151341784344</v>
+        <v>0.9992624960916446</v>
       </c>
       <c r="G5">
-        <v>1.014151341784344</v>
+        <v>0.9992624960916446</v>
       </c>
       <c r="H5">
-        <v>0.9824023634828642</v>
+        <v>0.9330134008894894</v>
       </c>
       <c r="I5">
-        <v>1.010895208972442</v>
+        <v>1.095150222614555</v>
       </c>
       <c r="J5">
-        <v>1.009473479247479</v>
+        <v>1.032946194932615</v>
       </c>
       <c r="K5">
-        <v>1.014151341784344</v>
+        <v>0.9992624960916446</v>
       </c>
       <c r="L5">
-        <v>1.007713872798316</v>
+        <v>1.047203542075472</v>
       </c>
       <c r="M5">
-        <v>0.9798219610761053</v>
+        <v>0.9603118820943395</v>
       </c>
       <c r="N5">
-        <v>0.9798219610761053</v>
+        <v>0.9603118820943395</v>
       </c>
       <c r="O5">
-        <v>0.9806820952116917</v>
+        <v>0.9512123883593895</v>
       </c>
       <c r="P5">
-        <v>0.9912650879788516</v>
+        <v>0.9732954200934412</v>
       </c>
       <c r="Q5">
-        <v>0.9912650879788516</v>
+        <v>0.9732954200934412</v>
       </c>
       <c r="R5">
-        <v>0.9969866514302248</v>
+        <v>0.979787189092992</v>
       </c>
       <c r="S5">
-        <v>0.9969866514302248</v>
+        <v>0.979787189092992</v>
       </c>
       <c r="T5">
-        <v>0.99609438593989</v>
+        <v>0.9968326797861637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.011333047954771</v>
+        <v>1.053700459318181</v>
       </c>
       <c r="D6">
-        <v>0.9292030832980507</v>
+        <v>0.8506390314431815</v>
       </c>
       <c r="E6">
-        <v>0.9292030832980507</v>
+        <v>0.8506390314431815</v>
       </c>
       <c r="F6">
-        <v>1.020249549403173</v>
+        <v>1.002976943238637</v>
       </c>
       <c r="G6">
-        <v>1.020249549403173</v>
+        <v>1.002976943238637</v>
       </c>
       <c r="H6">
-        <v>0.9744453017110146</v>
+        <v>0.922091654943182</v>
       </c>
       <c r="I6">
-        <v>1.017112053712685</v>
+        <v>1.105913993863636</v>
       </c>
       <c r="J6">
-        <v>1.013648141617359</v>
+        <v>1.038553119318181</v>
       </c>
       <c r="K6">
-        <v>1.020249549403173</v>
+        <v>1.002976943238637</v>
       </c>
       <c r="L6">
-        <v>1.011333047954771</v>
+        <v>1.053700459318181</v>
       </c>
       <c r="M6">
-        <v>0.9702680656264109</v>
+        <v>0.9521697453806814</v>
       </c>
       <c r="N6">
-        <v>0.9702680656264109</v>
+        <v>0.9521697453806814</v>
       </c>
       <c r="O6">
-        <v>0.9716604776546122</v>
+        <v>0.9421437152348483</v>
       </c>
       <c r="P6">
-        <v>0.9869285602186647</v>
+        <v>0.9691054779999999</v>
       </c>
       <c r="Q6">
-        <v>0.9869285602186647</v>
+        <v>0.9691054779999999</v>
       </c>
       <c r="R6">
-        <v>0.9952588075147917</v>
+        <v>0.9775733443096591</v>
       </c>
       <c r="S6">
-        <v>0.9952588075147917</v>
+        <v>0.9775733443096591</v>
       </c>
       <c r="T6">
-        <v>0.9943318629495087</v>
+        <v>0.9956458670208331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000288612920552</v>
+        <v>1.047668160009867</v>
       </c>
       <c r="D7">
-        <v>0.9992950170219054</v>
+        <v>0.3270834076928526</v>
       </c>
       <c r="E7">
-        <v>0.9992950170219054</v>
+        <v>0.3270834076928526</v>
       </c>
       <c r="F7">
-        <v>0.9999655404125093</v>
+        <v>1.432109478021322</v>
       </c>
       <c r="G7">
-        <v>0.9999655404125093</v>
+        <v>1.432109478021322</v>
       </c>
       <c r="H7">
-        <v>0.9996142550493446</v>
+        <v>0.6708480277072633</v>
       </c>
       <c r="I7">
-        <v>1.000551028486647</v>
+        <v>1.077360709613814</v>
       </c>
       <c r="J7">
-        <v>1.000191519808794</v>
+        <v>1.158695981028661</v>
       </c>
       <c r="K7">
-        <v>0.9999655404125093</v>
+        <v>1.432109478021322</v>
       </c>
       <c r="L7">
-        <v>1.000288612920552</v>
+        <v>1.047668160009867</v>
       </c>
       <c r="M7">
-        <v>0.9997918149712286</v>
+        <v>0.6873757838513599</v>
       </c>
       <c r="N7">
-        <v>0.9997918149712286</v>
+        <v>0.6873757838513599</v>
       </c>
       <c r="O7">
-        <v>0.9997326283306006</v>
+        <v>0.6818665318033276</v>
       </c>
       <c r="P7">
-        <v>0.9998497234516556</v>
+        <v>0.9356203485746807</v>
       </c>
       <c r="Q7">
-        <v>0.9998497234516556</v>
+        <v>0.9356203485746807</v>
       </c>
       <c r="R7">
-        <v>0.999878677691869</v>
+        <v>1.059742630936341</v>
       </c>
       <c r="S7">
-        <v>0.999878677691869</v>
+        <v>1.059742630936341</v>
       </c>
       <c r="T7">
-        <v>0.9999843289499587</v>
+        <v>0.9522942940122968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000700476361845</v>
+        <v>1.048225822991118</v>
       </c>
       <c r="D8">
-        <v>0.997879275739615</v>
+        <v>0.3273593703136901</v>
       </c>
       <c r="E8">
-        <v>0.997879275739615</v>
+        <v>0.3273593703136901</v>
       </c>
       <c r="F8">
-        <v>1.000229189164147</v>
+        <v>1.430767814980414</v>
       </c>
       <c r="G8">
-        <v>1.000229189164147</v>
+        <v>1.430767814980414</v>
       </c>
       <c r="H8">
-        <v>0.9988712308688232</v>
+        <v>0.6708985093472294</v>
       </c>
       <c r="I8">
-        <v>1.001349494325245</v>
+        <v>1.078403880759476</v>
       </c>
       <c r="J8">
-        <v>1.000554423597525</v>
+        <v>1.158686963844813</v>
       </c>
       <c r="K8">
-        <v>1.000229189164147</v>
+        <v>1.430767814980414</v>
       </c>
       <c r="L8">
-        <v>1.000700476361845</v>
+        <v>1.048225822991118</v>
       </c>
       <c r="M8">
-        <v>0.9992898760507298</v>
+        <v>0.687792596652404</v>
       </c>
       <c r="N8">
-        <v>0.9992898760507298</v>
+        <v>0.687792596652404</v>
       </c>
       <c r="O8">
-        <v>0.9991503276567609</v>
+        <v>0.6821612342173458</v>
       </c>
       <c r="P8">
-        <v>0.9996029804218689</v>
+        <v>0.9354510027617408</v>
       </c>
       <c r="Q8">
-        <v>0.9996029804218688</v>
+        <v>0.9354510027617408</v>
       </c>
       <c r="R8">
-        <v>0.9997595326074383</v>
+        <v>1.059280205816409</v>
       </c>
       <c r="S8">
-        <v>0.9997595326074383</v>
+        <v>1.059280205816409</v>
       </c>
       <c r="T8">
-        <v>0.9999306816761999</v>
+        <v>0.9523903937061236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00072008879686</v>
+        <v>1.049285661567702</v>
       </c>
       <c r="D9">
-        <v>0.9969592385996348</v>
+        <v>0.3278838451009656</v>
       </c>
       <c r="E9">
-        <v>0.9969592385996348</v>
+        <v>0.3278838451009656</v>
       </c>
       <c r="F9">
-        <v>1.000889714836048</v>
+        <v>1.428179661491216</v>
       </c>
       <c r="G9">
-        <v>1.000889714836048</v>
+        <v>1.428179661491216</v>
       </c>
       <c r="H9">
-        <v>0.9984281877169934</v>
+        <v>0.6710037668051343</v>
       </c>
       <c r="I9">
-        <v>1.001463724951388</v>
+        <v>1.080384884679229</v>
       </c>
       <c r="J9">
-        <v>1.000755830893859</v>
+        <v>1.158675929183886</v>
       </c>
       <c r="K9">
-        <v>1.000889714836048</v>
+        <v>1.428179661491216</v>
       </c>
       <c r="L9">
-        <v>1.00072008879686</v>
+        <v>1.049285661567702</v>
       </c>
       <c r="M9">
-        <v>0.9988396636982475</v>
+        <v>0.6885847533343336</v>
       </c>
       <c r="N9">
-        <v>0.9988396636982475</v>
+        <v>0.6885847533343336</v>
       </c>
       <c r="O9">
-        <v>0.9987025050378294</v>
+        <v>0.682724424491267</v>
       </c>
       <c r="P9">
-        <v>0.9995230140775142</v>
+        <v>0.9351163893866278</v>
       </c>
       <c r="Q9">
-        <v>0.9995230140775142</v>
+        <v>0.9351163893866278</v>
       </c>
       <c r="R9">
-        <v>0.9998646892671476</v>
+        <v>1.058382207412775</v>
       </c>
       <c r="S9">
-        <v>0.9998646892671476</v>
+        <v>1.058382207412775</v>
       </c>
       <c r="T9">
-        <v>0.9998694642991306</v>
+        <v>0.9525689581380221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001839335445311</v>
+        <v>1.049231739370411</v>
       </c>
       <c r="D10">
-        <v>0.9935610833636789</v>
+        <v>0.3278571320784172</v>
       </c>
       <c r="E10">
-        <v>0.9935610833636789</v>
+        <v>0.3278571320784172</v>
       </c>
       <c r="F10">
-        <v>1.00122767303185</v>
+        <v>1.428452779321871</v>
       </c>
       <c r="G10">
-        <v>1.00122767303185</v>
+        <v>1.428452779321871</v>
       </c>
       <c r="H10">
-        <v>0.9966325223948199</v>
+        <v>0.670964025004841</v>
       </c>
       <c r="I10">
-        <v>1.003684530467892</v>
+        <v>1.080289789066266</v>
       </c>
       <c r="J10">
-        <v>1.001632962732913</v>
+        <v>1.158653968135377</v>
       </c>
       <c r="K10">
-        <v>1.00122767303185</v>
+        <v>1.428452779321871</v>
       </c>
       <c r="L10">
-        <v>1.001839335445311</v>
+        <v>1.049231739370411</v>
       </c>
       <c r="M10">
-        <v>0.9977002094044949</v>
+        <v>0.6885444357244139</v>
       </c>
       <c r="N10">
-        <v>0.9977002094044949</v>
+        <v>0.6885444357244139</v>
       </c>
       <c r="O10">
-        <v>0.9973443137346032</v>
+        <v>0.6826842988178896</v>
       </c>
       <c r="P10">
-        <v>0.9988760306136131</v>
+        <v>0.9351805502568995</v>
       </c>
       <c r="Q10">
-        <v>0.9988760306136131</v>
+        <v>0.9351805502568995</v>
       </c>
       <c r="R10">
-        <v>0.9994639412181723</v>
+        <v>1.058498607523142</v>
       </c>
       <c r="S10">
-        <v>0.9994639412181723</v>
+        <v>1.058498607523142</v>
       </c>
       <c r="T10">
-        <v>0.9997630179060774</v>
+        <v>0.9525749054961971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002424286863152</v>
+        <v>1.001746250990393</v>
       </c>
       <c r="D11">
-        <v>0.9888695511265402</v>
+        <v>0.9835289533875223</v>
       </c>
       <c r="E11">
-        <v>0.9888695511265402</v>
+        <v>0.9835289533875223</v>
       </c>
       <c r="F11">
-        <v>1.003781631770135</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="G11">
-        <v>1.003781631770135</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="H11">
-        <v>0.9942566907695909</v>
+        <v>0.9935053582077744</v>
       </c>
       <c r="I11">
-        <v>1.004759929457045</v>
+        <v>1.002394873263417</v>
       </c>
       <c r="J11">
-        <v>1.002770012423325</v>
+        <v>1.003359711625994</v>
       </c>
       <c r="K11">
-        <v>1.003781631770135</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="L11">
-        <v>1.002424286863152</v>
+        <v>1.001746250990393</v>
       </c>
       <c r="M11">
-        <v>0.9956469189948461</v>
+        <v>0.9926376021889578</v>
       </c>
       <c r="N11">
-        <v>0.9956469189948461</v>
+        <v>0.9926376021889578</v>
       </c>
       <c r="O11">
-        <v>0.9951835095864278</v>
+        <v>0.99292685419523</v>
       </c>
       <c r="P11">
-        <v>0.9983584899199425</v>
+        <v>0.9975443030607202</v>
       </c>
       <c r="Q11">
-        <v>0.9983584899199425</v>
+        <v>0.9975443030607204</v>
       </c>
       <c r="R11">
-        <v>0.9997142753824907</v>
+        <v>0.9999976534966015</v>
       </c>
       <c r="S11">
-        <v>0.9997142753824907</v>
+        <v>0.9999976534966015</v>
       </c>
       <c r="T11">
-        <v>0.9994770170682979</v>
+        <v>0.9986488087132243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9846342279396676</v>
+        <v>1.001383581400555</v>
       </c>
       <c r="D12">
-        <v>1.077850615863723</v>
+        <v>0.9903412178191392</v>
       </c>
       <c r="E12">
-        <v>1.077850615863723</v>
+        <v>0.9903412178191392</v>
       </c>
       <c r="F12">
-        <v>0.9423444188058533</v>
+        <v>1.003733724222972</v>
       </c>
       <c r="G12">
-        <v>0.9423444188058533</v>
+        <v>1.003733724222972</v>
       </c>
       <c r="H12">
-        <v>1.083254412507265</v>
+        <v>0.9960342269942801</v>
       </c>
       <c r="I12">
-        <v>0.8743019070197312</v>
+        <v>1.002029409158309</v>
       </c>
       <c r="J12">
-        <v>0.9724519891830443</v>
+        <v>1.002053427414032</v>
       </c>
       <c r="K12">
-        <v>0.9423444188058533</v>
+        <v>1.003733724222972</v>
       </c>
       <c r="L12">
-        <v>0.9846342279396676</v>
+        <v>1.001383581400555</v>
       </c>
       <c r="M12">
-        <v>1.031242421901695</v>
+        <v>0.9958623996098472</v>
       </c>
       <c r="N12">
-        <v>1.031242421901695</v>
+        <v>0.9958623996098472</v>
       </c>
       <c r="O12">
-        <v>1.048579752103552</v>
+        <v>0.9959196754046582</v>
       </c>
       <c r="P12">
-        <v>1.001609754203081</v>
+        <v>0.9984861744808891</v>
       </c>
       <c r="Q12">
-        <v>1.001609754203081</v>
+        <v>0.9984861744808891</v>
       </c>
       <c r="R12">
-        <v>0.9867934203537743</v>
+        <v>0.99979806191641</v>
       </c>
       <c r="S12">
-        <v>0.9867934203537743</v>
+        <v>0.99979806191641</v>
       </c>
       <c r="T12">
-        <v>0.9891395952198808</v>
+        <v>0.9992625978348815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9624407429395495</v>
+        <v>1.005049053303634</v>
       </c>
       <c r="D13">
-        <v>1.10987825422186</v>
+        <v>0.967325826311088</v>
       </c>
       <c r="E13">
-        <v>1.10987825422186</v>
+        <v>0.967325826311088</v>
       </c>
       <c r="F13">
-        <v>1.025921695718824</v>
+        <v>1.011464202867236</v>
       </c>
       <c r="G13">
-        <v>1.025921695718824</v>
+        <v>1.011464202867236</v>
       </c>
       <c r="H13">
-        <v>1.015031001414542</v>
+        <v>0.986884031804299</v>
       </c>
       <c r="I13">
-        <v>1.004824163618326</v>
+        <v>1.007245342253495</v>
       </c>
       <c r="J13">
-        <v>0.9808753779544395</v>
+        <v>1.006889079119998</v>
       </c>
       <c r="K13">
-        <v>1.025921695718824</v>
+        <v>1.011464202867236</v>
       </c>
       <c r="L13">
-        <v>0.9624407429395495</v>
+        <v>1.005049053303634</v>
       </c>
       <c r="M13">
-        <v>1.036159498580705</v>
+        <v>0.9861874398073612</v>
       </c>
       <c r="N13">
-        <v>1.036159498580705</v>
+        <v>0.9861874398073612</v>
       </c>
       <c r="O13">
-        <v>1.029116666191983</v>
+        <v>0.9864196371396737</v>
       </c>
       <c r="P13">
-        <v>1.032746897626744</v>
+        <v>0.9946130274939863</v>
       </c>
       <c r="Q13">
-        <v>1.032746897626744</v>
+        <v>0.9946130274939863</v>
       </c>
       <c r="R13">
-        <v>1.031040597149764</v>
+        <v>0.9988258213372988</v>
       </c>
       <c r="S13">
-        <v>1.031040597149764</v>
+        <v>0.9988258213372988</v>
       </c>
       <c r="T13">
-        <v>1.016495205977923</v>
+        <v>0.9974762559432918</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9159800444280666</v>
+        <v>1.005798554120036</v>
       </c>
       <c r="D14">
-        <v>1.63771546562962</v>
+        <v>0.963958755442399</v>
       </c>
       <c r="E14">
-        <v>1.63771546562962</v>
+        <v>0.963958755442399</v>
       </c>
       <c r="F14">
-        <v>0.7501841524247995</v>
+        <v>1.010834212710858</v>
       </c>
       <c r="G14">
-        <v>0.7501841524247995</v>
+        <v>1.010834212710858</v>
       </c>
       <c r="H14">
-        <v>1.243374808094663</v>
+        <v>0.9865924637958462</v>
       </c>
       <c r="I14">
-        <v>0.9228204328098139</v>
+        <v>1.008221233213161</v>
       </c>
       <c r="J14">
-        <v>0.8674354756491461</v>
+        <v>1.007191655777943</v>
       </c>
       <c r="K14">
-        <v>0.7501841524247995</v>
+        <v>1.010834212710858</v>
       </c>
       <c r="L14">
-        <v>0.9159800444280666</v>
+        <v>1.005798554120036</v>
       </c>
       <c r="M14">
-        <v>1.276847755028843</v>
+        <v>0.9848786547812174</v>
       </c>
       <c r="N14">
-        <v>1.276847755028843</v>
+        <v>0.9848786547812174</v>
       </c>
       <c r="O14">
-        <v>1.265690106050783</v>
+        <v>0.9854499244527603</v>
       </c>
       <c r="P14">
-        <v>1.101293220827495</v>
+        <v>0.9935305074244308</v>
       </c>
       <c r="Q14">
-        <v>1.101293220827495</v>
+        <v>0.9935305074244308</v>
       </c>
       <c r="R14">
-        <v>1.013515953726821</v>
+        <v>0.9978564337460376</v>
       </c>
       <c r="S14">
-        <v>1.013515953726821</v>
+        <v>0.9978564337460376</v>
       </c>
       <c r="T14">
-        <v>1.056251729839351</v>
+        <v>0.997099479176707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9817792847120264</v>
+        <v>1.002035251669052</v>
       </c>
       <c r="D15">
-        <v>0.9738478690681243</v>
+        <v>0.9868703639704505</v>
       </c>
       <c r="E15">
-        <v>0.9738478690681243</v>
+        <v>0.9868703639704505</v>
       </c>
       <c r="F15">
-        <v>0.9900428410959422</v>
+        <v>1.003964997850335</v>
       </c>
       <c r="G15">
-        <v>0.9900428410959422</v>
+        <v>1.003964997850335</v>
       </c>
       <c r="H15">
-        <v>1.075123391084751</v>
+        <v>0.9952502692285891</v>
       </c>
       <c r="I15">
-        <v>0.8182991208147528</v>
+        <v>1.002781419064708</v>
       </c>
       <c r="J15">
-        <v>0.9842458139748651</v>
+        <v>1.002568724690514</v>
       </c>
       <c r="K15">
-        <v>0.9900428410959422</v>
+        <v>1.003964997850335</v>
       </c>
       <c r="L15">
-        <v>0.9817792847120264</v>
+        <v>1.002035251669052</v>
       </c>
       <c r="M15">
-        <v>0.9778135768900753</v>
+        <v>0.9944528078197514</v>
       </c>
       <c r="N15">
-        <v>0.9778135768900753</v>
+        <v>0.9944528078197514</v>
       </c>
       <c r="O15">
-        <v>1.010250181621634</v>
+        <v>0.994718628289364</v>
       </c>
       <c r="P15">
-        <v>0.9818899982920309</v>
+        <v>0.9976235378299458</v>
       </c>
       <c r="Q15">
-        <v>0.9818899982920309</v>
+        <v>0.9976235378299458</v>
       </c>
       <c r="R15">
-        <v>0.9839282089930087</v>
+        <v>0.999208902835043</v>
       </c>
       <c r="S15">
-        <v>0.9839282089930087</v>
+        <v>0.999208902835043</v>
       </c>
       <c r="T15">
-        <v>0.9705563867917436</v>
+        <v>0.9989118377456082</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.040636519386113</v>
+        <v>1.003747831669749</v>
       </c>
       <c r="D16">
-        <v>0.7551979231517832</v>
+        <v>0.9748632270115449</v>
       </c>
       <c r="E16">
-        <v>0.7551979231517832</v>
+        <v>0.9748632270115449</v>
       </c>
       <c r="F16">
-        <v>1.072400853424824</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="G16">
-        <v>1.072400853424824</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="H16">
-        <v>0.9064872947773508</v>
+        <v>0.9907689160690064</v>
       </c>
       <c r="I16">
-        <v>1.062983540107765</v>
+        <v>1.005155112297771</v>
       </c>
       <c r="J16">
-        <v>1.049481401900177</v>
+        <v>1.004953677216206</v>
       </c>
       <c r="K16">
-        <v>1.072400853424824</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="L16">
-        <v>1.040636519386113</v>
+        <v>1.003747831669749</v>
       </c>
       <c r="M16">
-        <v>0.8979172212689481</v>
+        <v>0.989305529340647</v>
       </c>
       <c r="N16">
-        <v>0.8979172212689481</v>
+        <v>0.989305529340647</v>
       </c>
       <c r="O16">
-        <v>0.9007739124384156</v>
+        <v>0.9897933249167669</v>
       </c>
       <c r="P16">
-        <v>0.9560784319875735</v>
+        <v>0.9955625331618467</v>
       </c>
       <c r="Q16">
-        <v>0.9560784319875734</v>
+        <v>0.9955625331618467</v>
       </c>
       <c r="R16">
-        <v>0.9851590373468859</v>
+        <v>0.9986910350724465</v>
       </c>
       <c r="S16">
-        <v>0.9851590373468859</v>
+        <v>0.9986910350724465</v>
       </c>
       <c r="T16">
-        <v>0.9811979221246688</v>
+        <v>0.997927550844754</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.038136160477342</v>
+        <v>1.007713872798316</v>
       </c>
       <c r="D17">
-        <v>0.8107294300157167</v>
+        <v>0.9519300493538949</v>
       </c>
       <c r="E17">
-        <v>0.8107294300157167</v>
+        <v>0.9519300493538949</v>
       </c>
       <c r="F17">
-        <v>1.045644034771311</v>
+        <v>1.014151341784344</v>
       </c>
       <c r="G17">
-        <v>1.045644034771311</v>
+        <v>1.014151341784344</v>
       </c>
       <c r="H17">
-        <v>0.9230244925709838</v>
+        <v>0.9824023634828642</v>
       </c>
       <c r="I17">
-        <v>1.065944193281495</v>
+        <v>1.010895208972442</v>
       </c>
       <c r="J17">
-        <v>1.040004623655097</v>
+        <v>1.009473479247479</v>
       </c>
       <c r="K17">
-        <v>1.045644034771311</v>
+        <v>1.014151341784344</v>
       </c>
       <c r="L17">
-        <v>1.038136160477342</v>
+        <v>1.007713872798316</v>
       </c>
       <c r="M17">
-        <v>0.9244327952465294</v>
+        <v>0.9798219610761053</v>
       </c>
       <c r="N17">
-        <v>0.9244327952465294</v>
+        <v>0.9798219610761053</v>
       </c>
       <c r="O17">
-        <v>0.9239633610213476</v>
+        <v>0.9806820952116917</v>
       </c>
       <c r="P17">
-        <v>0.9648365417547901</v>
+        <v>0.9912650879788516</v>
       </c>
       <c r="Q17">
-        <v>0.9648365417547901</v>
+        <v>0.9912650879788516</v>
       </c>
       <c r="R17">
-        <v>0.9850384150089204</v>
+        <v>0.9969866514302248</v>
       </c>
       <c r="S17">
-        <v>0.9850384150089204</v>
+        <v>0.9969866514302248</v>
       </c>
       <c r="T17">
-        <v>0.9872471557953243</v>
+        <v>0.99609438593989</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.032687194737194</v>
+        <v>1.011333047954771</v>
       </c>
       <c r="D18">
-        <v>0.9216403918009728</v>
+        <v>0.9292030832980507</v>
       </c>
       <c r="E18">
-        <v>0.9216403918009728</v>
+        <v>0.9292030832980507</v>
       </c>
       <c r="F18">
-        <v>0.9930970501783351</v>
+        <v>1.020249549403173</v>
       </c>
       <c r="G18">
-        <v>0.9930970501783351</v>
+        <v>1.020249549403173</v>
       </c>
       <c r="H18">
-        <v>0.9561561614623064</v>
+        <v>0.9744453017110146</v>
       </c>
       <c r="I18">
-        <v>1.070991879199201</v>
+        <v>1.017112053712685</v>
       </c>
       <c r="J18">
-        <v>1.021013951102195</v>
+        <v>1.013648141617359</v>
       </c>
       <c r="K18">
-        <v>0.9930970501783351</v>
+        <v>1.020249549403173</v>
       </c>
       <c r="L18">
-        <v>1.032687194737194</v>
+        <v>1.011333047954771</v>
       </c>
       <c r="M18">
-        <v>0.9771637932690833</v>
+        <v>0.9702680656264109</v>
       </c>
       <c r="N18">
-        <v>0.9771637932690833</v>
+        <v>0.9702680656264109</v>
       </c>
       <c r="O18">
-        <v>0.9701612493334911</v>
+        <v>0.9716604776546122</v>
       </c>
       <c r="P18">
-        <v>0.9824748789055006</v>
+        <v>0.9869285602186647</v>
       </c>
       <c r="Q18">
-        <v>0.9824748789055006</v>
+        <v>0.9869285602186647</v>
       </c>
       <c r="R18">
-        <v>0.9851304217237091</v>
+        <v>0.9952588075147917</v>
       </c>
       <c r="S18">
-        <v>0.9851304217237091</v>
+        <v>0.9952588075147917</v>
       </c>
       <c r="T18">
-        <v>0.9992644380800338</v>
+        <v>0.9943318629495087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.043265038757767</v>
+        <v>1.000288612920552</v>
       </c>
       <c r="D19">
-        <v>0.9081613861458562</v>
+        <v>0.9992950170219054</v>
       </c>
       <c r="E19">
-        <v>0.9081613861458562</v>
+        <v>0.9992950170219054</v>
       </c>
       <c r="F19">
-        <v>0.9785948195097198</v>
+        <v>0.9999655404125093</v>
       </c>
       <c r="G19">
-        <v>0.9785948195097198</v>
+        <v>0.9999655404125093</v>
       </c>
       <c r="H19">
-        <v>0.9520845553740876</v>
+        <v>0.9996142550493446</v>
       </c>
       <c r="I19">
-        <v>1.084618288073668</v>
+        <v>1.000551028486647</v>
       </c>
       <c r="J19">
-        <v>1.024231964145669</v>
+        <v>1.000191519808794</v>
       </c>
       <c r="K19">
-        <v>0.9785948195097198</v>
+        <v>0.9999655404125093</v>
       </c>
       <c r="L19">
-        <v>1.043265038757767</v>
+        <v>1.000288612920552</v>
       </c>
       <c r="M19">
-        <v>0.9757132124518115</v>
+        <v>0.9997918149712286</v>
       </c>
       <c r="N19">
-        <v>0.9757132124518115</v>
+        <v>0.9997918149712286</v>
       </c>
       <c r="O19">
-        <v>0.9678369934259036</v>
+        <v>0.9997326283306006</v>
       </c>
       <c r="P19">
-        <v>0.976673748137781</v>
+        <v>0.9998497234516556</v>
       </c>
       <c r="Q19">
-        <v>0.976673748137781</v>
+        <v>0.9998497234516556</v>
       </c>
       <c r="R19">
-        <v>0.9771540159807657</v>
+        <v>0.999878677691869</v>
       </c>
       <c r="S19">
-        <v>0.9771540159807657</v>
+        <v>0.999878677691869</v>
       </c>
       <c r="T19">
-        <v>0.9984926753344613</v>
+        <v>0.9999843289499587</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000686126301871</v>
+        <v>1.000700476361845</v>
       </c>
       <c r="D20">
-        <v>1.000683507722199</v>
+        <v>0.997879275739615</v>
       </c>
       <c r="E20">
-        <v>1.000683507722199</v>
+        <v>0.997879275739615</v>
       </c>
       <c r="F20">
-        <v>0.9981705734745558</v>
+        <v>1.000229189164147</v>
       </c>
       <c r="G20">
-        <v>0.9981705734745558</v>
+        <v>1.000229189164147</v>
       </c>
       <c r="H20">
-        <v>1.000047053300127</v>
+        <v>0.9988712308688232</v>
       </c>
       <c r="I20">
-        <v>1.001732631684872</v>
+        <v>1.001349494325245</v>
       </c>
       <c r="J20">
-        <v>0.9999427151774737</v>
+        <v>1.000554423597525</v>
       </c>
       <c r="K20">
-        <v>0.9981705734745558</v>
+        <v>1.000229189164147</v>
       </c>
       <c r="L20">
-        <v>1.000686126301871</v>
+        <v>1.000700476361845</v>
       </c>
       <c r="M20">
-        <v>1.000684817012035</v>
+        <v>0.9992898760507298</v>
       </c>
       <c r="N20">
-        <v>1.000684817012035</v>
+        <v>0.9992898760507298</v>
       </c>
       <c r="O20">
-        <v>1.000472229108066</v>
+        <v>0.9991503276567609</v>
       </c>
       <c r="P20">
-        <v>0.9998467358328753</v>
+        <v>0.9996029804218689</v>
       </c>
       <c r="Q20">
-        <v>0.9998467358328753</v>
+        <v>0.9996029804218688</v>
       </c>
       <c r="R20">
-        <v>0.9994276952432954</v>
+        <v>0.9997595326074383</v>
       </c>
       <c r="S20">
-        <v>0.9994276952432954</v>
+        <v>0.9997595326074383</v>
       </c>
       <c r="T20">
-        <v>1.000210434610183</v>
+        <v>0.9999306816761999</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9995087254452814</v>
+        <v>1.00072008879686</v>
       </c>
       <c r="D21">
-        <v>0.9980822192435786</v>
+        <v>0.9969592385996348</v>
       </c>
       <c r="E21">
-        <v>0.9980822192435786</v>
+        <v>0.9969592385996348</v>
       </c>
       <c r="F21">
-        <v>1.002340113333077</v>
+        <v>1.000889714836048</v>
       </c>
       <c r="G21">
-        <v>1.002340113333077</v>
+        <v>1.000889714836048</v>
       </c>
       <c r="H21">
-        <v>0.9994635346055966</v>
+        <v>0.9984281877169934</v>
       </c>
       <c r="I21">
-        <v>0.9982140795159135</v>
+        <v>1.001463724951388</v>
       </c>
       <c r="J21">
-        <v>1.000349993892073</v>
+        <v>1.000755830893859</v>
       </c>
       <c r="K21">
-        <v>1.002340113333077</v>
+        <v>1.000889714836048</v>
       </c>
       <c r="L21">
-        <v>0.9995087254452814</v>
+        <v>1.00072008879686</v>
       </c>
       <c r="M21">
-        <v>0.99879547234443</v>
+        <v>0.9988396636982475</v>
       </c>
       <c r="N21">
-        <v>0.99879547234443</v>
+        <v>0.9988396636982475</v>
       </c>
       <c r="O21">
-        <v>0.9990181597648188</v>
+        <v>0.9987025050378294</v>
       </c>
       <c r="P21">
-        <v>0.9999770193406459</v>
+        <v>0.9995230140775142</v>
       </c>
       <c r="Q21">
-        <v>0.9999770193406458</v>
+        <v>0.9995230140775142</v>
       </c>
       <c r="R21">
-        <v>1.000567792838754</v>
+        <v>0.9998646892671476</v>
       </c>
       <c r="S21">
-        <v>1.000567792838754</v>
+        <v>0.9998646892671476</v>
       </c>
       <c r="T21">
-        <v>0.9996597776725867</v>
+        <v>0.9998694642991306</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.00235188171285</v>
+        <v>1.001839335445311</v>
       </c>
       <c r="D22">
-        <v>0.9981266846005976</v>
+        <v>0.9935610833636789</v>
       </c>
       <c r="E22">
-        <v>0.9981266846005976</v>
+        <v>0.9935610833636789</v>
       </c>
       <c r="F22">
-        <v>0.9964393185753669</v>
+        <v>1.00122767303185</v>
       </c>
       <c r="G22">
-        <v>0.9964393185753669</v>
+        <v>1.00122767303185</v>
       </c>
       <c r="H22">
-        <v>0.9986951268109231</v>
+        <v>0.9966325223948199</v>
       </c>
       <c r="I22">
-        <v>1.005628176194989</v>
+        <v>1.003684530467892</v>
       </c>
       <c r="J22">
-        <v>1.000550059148487</v>
+        <v>1.001632962732913</v>
       </c>
       <c r="K22">
-        <v>0.9964393185753669</v>
+        <v>1.00122767303185</v>
       </c>
       <c r="L22">
-        <v>1.00235188171285</v>
+        <v>1.001839335445311</v>
       </c>
       <c r="M22">
-        <v>1.000239283156724</v>
+        <v>0.9977002094044949</v>
       </c>
       <c r="N22">
-        <v>1.000239283156724</v>
+        <v>0.9977002094044949</v>
       </c>
       <c r="O22">
-        <v>0.9997245643747902</v>
+        <v>0.9973443137346032</v>
       </c>
       <c r="P22">
-        <v>0.9989726282962715</v>
+        <v>0.9988760306136131</v>
       </c>
       <c r="Q22">
-        <v>0.9989726282962715</v>
+        <v>0.9988760306136131</v>
       </c>
       <c r="R22">
-        <v>0.9983393008660454</v>
+        <v>0.9994639412181723</v>
       </c>
       <c r="S22">
-        <v>0.9983393008660454</v>
+        <v>0.9994639412181723</v>
       </c>
       <c r="T22">
-        <v>1.000298541173869</v>
+        <v>0.9997630179060774</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.002424286863152</v>
+      </c>
+      <c r="D23">
+        <v>0.9888695511265402</v>
+      </c>
+      <c r="E23">
+        <v>0.9888695511265402</v>
+      </c>
+      <c r="F23">
+        <v>1.003781631770135</v>
+      </c>
+      <c r="G23">
+        <v>1.003781631770135</v>
+      </c>
+      <c r="H23">
+        <v>0.9942566907695909</v>
+      </c>
+      <c r="I23">
+        <v>1.004759929457045</v>
+      </c>
+      <c r="J23">
+        <v>1.002770012423325</v>
+      </c>
+      <c r="K23">
+        <v>1.003781631770135</v>
+      </c>
+      <c r="L23">
+        <v>1.002424286863152</v>
+      </c>
+      <c r="M23">
+        <v>0.9956469189948461</v>
+      </c>
+      <c r="N23">
+        <v>0.9956469189948461</v>
+      </c>
+      <c r="O23">
+        <v>0.9951835095864278</v>
+      </c>
+      <c r="P23">
+        <v>0.9983584899199425</v>
+      </c>
+      <c r="Q23">
+        <v>0.9983584899199425</v>
+      </c>
+      <c r="R23">
+        <v>0.9997142753824907</v>
+      </c>
+      <c r="S23">
+        <v>0.9997142753824907</v>
+      </c>
+      <c r="T23">
+        <v>0.9994770170682979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9846342279396676</v>
+      </c>
+      <c r="D24">
+        <v>1.077850615863723</v>
+      </c>
+      <c r="E24">
+        <v>1.077850615863723</v>
+      </c>
+      <c r="F24">
+        <v>0.9423444188058533</v>
+      </c>
+      <c r="G24">
+        <v>0.9423444188058533</v>
+      </c>
+      <c r="H24">
+        <v>1.083254412507265</v>
+      </c>
+      <c r="I24">
+        <v>0.8743019070197312</v>
+      </c>
+      <c r="J24">
+        <v>0.9724519891830443</v>
+      </c>
+      <c r="K24">
+        <v>0.9423444188058533</v>
+      </c>
+      <c r="L24">
+        <v>0.9846342279396676</v>
+      </c>
+      <c r="M24">
+        <v>1.031242421901695</v>
+      </c>
+      <c r="N24">
+        <v>1.031242421901695</v>
+      </c>
+      <c r="O24">
+        <v>1.048579752103552</v>
+      </c>
+      <c r="P24">
+        <v>1.001609754203081</v>
+      </c>
+      <c r="Q24">
+        <v>1.001609754203081</v>
+      </c>
+      <c r="R24">
+        <v>0.9867934203537743</v>
+      </c>
+      <c r="S24">
+        <v>0.9867934203537743</v>
+      </c>
+      <c r="T24">
+        <v>0.9891395952198808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9624407429395495</v>
+      </c>
+      <c r="D25">
+        <v>1.10987825422186</v>
+      </c>
+      <c r="E25">
+        <v>1.10987825422186</v>
+      </c>
+      <c r="F25">
+        <v>1.025921695718824</v>
+      </c>
+      <c r="G25">
+        <v>1.025921695718824</v>
+      </c>
+      <c r="H25">
+        <v>1.015031001414542</v>
+      </c>
+      <c r="I25">
+        <v>1.004824163618326</v>
+      </c>
+      <c r="J25">
+        <v>0.9808753779544395</v>
+      </c>
+      <c r="K25">
+        <v>1.025921695718824</v>
+      </c>
+      <c r="L25">
+        <v>0.9624407429395495</v>
+      </c>
+      <c r="M25">
+        <v>1.036159498580705</v>
+      </c>
+      <c r="N25">
+        <v>1.036159498580705</v>
+      </c>
+      <c r="O25">
+        <v>1.029116666191983</v>
+      </c>
+      <c r="P25">
+        <v>1.032746897626744</v>
+      </c>
+      <c r="Q25">
+        <v>1.032746897626744</v>
+      </c>
+      <c r="R25">
+        <v>1.031040597149764</v>
+      </c>
+      <c r="S25">
+        <v>1.031040597149764</v>
+      </c>
+      <c r="T25">
+        <v>1.016495205977923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9159800444280666</v>
+      </c>
+      <c r="D26">
+        <v>1.63771546562962</v>
+      </c>
+      <c r="E26">
+        <v>1.63771546562962</v>
+      </c>
+      <c r="F26">
+        <v>0.7501841524247995</v>
+      </c>
+      <c r="G26">
+        <v>0.7501841524247995</v>
+      </c>
+      <c r="H26">
+        <v>1.243374808094663</v>
+      </c>
+      <c r="I26">
+        <v>0.9228204328098139</v>
+      </c>
+      <c r="J26">
+        <v>0.8674354756491461</v>
+      </c>
+      <c r="K26">
+        <v>0.7501841524247995</v>
+      </c>
+      <c r="L26">
+        <v>0.9159800444280666</v>
+      </c>
+      <c r="M26">
+        <v>1.276847755028843</v>
+      </c>
+      <c r="N26">
+        <v>1.276847755028843</v>
+      </c>
+      <c r="O26">
+        <v>1.265690106050783</v>
+      </c>
+      <c r="P26">
+        <v>1.101293220827495</v>
+      </c>
+      <c r="Q26">
+        <v>1.101293220827495</v>
+      </c>
+      <c r="R26">
+        <v>1.013515953726821</v>
+      </c>
+      <c r="S26">
+        <v>1.013515953726821</v>
+      </c>
+      <c r="T26">
+        <v>1.056251729839351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9817792847120264</v>
+      </c>
+      <c r="D27">
+        <v>0.9738478690681243</v>
+      </c>
+      <c r="E27">
+        <v>0.9738478690681243</v>
+      </c>
+      <c r="F27">
+        <v>0.9900428410959422</v>
+      </c>
+      <c r="G27">
+        <v>0.9900428410959422</v>
+      </c>
+      <c r="H27">
+        <v>1.075123391084751</v>
+      </c>
+      <c r="I27">
+        <v>0.8182991208147528</v>
+      </c>
+      <c r="J27">
+        <v>0.9842458139748651</v>
+      </c>
+      <c r="K27">
+        <v>0.9900428410959422</v>
+      </c>
+      <c r="L27">
+        <v>0.9817792847120264</v>
+      </c>
+      <c r="M27">
+        <v>0.9778135768900753</v>
+      </c>
+      <c r="N27">
+        <v>0.9778135768900753</v>
+      </c>
+      <c r="O27">
+        <v>1.010250181621634</v>
+      </c>
+      <c r="P27">
+        <v>0.9818899982920309</v>
+      </c>
+      <c r="Q27">
+        <v>0.9818899982920309</v>
+      </c>
+      <c r="R27">
+        <v>0.9839282089930087</v>
+      </c>
+      <c r="S27">
+        <v>0.9839282089930087</v>
+      </c>
+      <c r="T27">
+        <v>0.9705563867917436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.040636519386113</v>
+      </c>
+      <c r="D28">
+        <v>0.7551979231517832</v>
+      </c>
+      <c r="E28">
+        <v>0.7551979231517832</v>
+      </c>
+      <c r="F28">
+        <v>1.072400853424824</v>
+      </c>
+      <c r="G28">
+        <v>1.072400853424824</v>
+      </c>
+      <c r="H28">
+        <v>0.9064872947773508</v>
+      </c>
+      <c r="I28">
+        <v>1.062983540107765</v>
+      </c>
+      <c r="J28">
+        <v>1.049481401900177</v>
+      </c>
+      <c r="K28">
+        <v>1.072400853424824</v>
+      </c>
+      <c r="L28">
+        <v>1.040636519386113</v>
+      </c>
+      <c r="M28">
+        <v>0.8979172212689481</v>
+      </c>
+      <c r="N28">
+        <v>0.8979172212689481</v>
+      </c>
+      <c r="O28">
+        <v>0.9007739124384156</v>
+      </c>
+      <c r="P28">
+        <v>0.9560784319875735</v>
+      </c>
+      <c r="Q28">
+        <v>0.9560784319875734</v>
+      </c>
+      <c r="R28">
+        <v>0.9851590373468859</v>
+      </c>
+      <c r="S28">
+        <v>0.9851590373468859</v>
+      </c>
+      <c r="T28">
+        <v>0.9811979221246688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.038136160477342</v>
+      </c>
+      <c r="D29">
+        <v>0.8107294300157167</v>
+      </c>
+      <c r="E29">
+        <v>0.8107294300157167</v>
+      </c>
+      <c r="F29">
+        <v>1.045644034771311</v>
+      </c>
+      <c r="G29">
+        <v>1.045644034771311</v>
+      </c>
+      <c r="H29">
+        <v>0.9230244925709838</v>
+      </c>
+      <c r="I29">
+        <v>1.065944193281495</v>
+      </c>
+      <c r="J29">
+        <v>1.040004623655097</v>
+      </c>
+      <c r="K29">
+        <v>1.045644034771311</v>
+      </c>
+      <c r="L29">
+        <v>1.038136160477342</v>
+      </c>
+      <c r="M29">
+        <v>0.9244327952465294</v>
+      </c>
+      <c r="N29">
+        <v>0.9244327952465294</v>
+      </c>
+      <c r="O29">
+        <v>0.9239633610213476</v>
+      </c>
+      <c r="P29">
+        <v>0.9648365417547901</v>
+      </c>
+      <c r="Q29">
+        <v>0.9648365417547901</v>
+      </c>
+      <c r="R29">
+        <v>0.9850384150089204</v>
+      </c>
+      <c r="S29">
+        <v>0.9850384150089204</v>
+      </c>
+      <c r="T29">
+        <v>0.9872471557953243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.032687194737194</v>
+      </c>
+      <c r="D30">
+        <v>0.9216403918009728</v>
+      </c>
+      <c r="E30">
+        <v>0.9216403918009728</v>
+      </c>
+      <c r="F30">
+        <v>0.9930970501783351</v>
+      </c>
+      <c r="G30">
+        <v>0.9930970501783351</v>
+      </c>
+      <c r="H30">
+        <v>0.9561561614623064</v>
+      </c>
+      <c r="I30">
+        <v>1.070991879199201</v>
+      </c>
+      <c r="J30">
+        <v>1.021013951102195</v>
+      </c>
+      <c r="K30">
+        <v>0.9930970501783351</v>
+      </c>
+      <c r="L30">
+        <v>1.032687194737194</v>
+      </c>
+      <c r="M30">
+        <v>0.9771637932690833</v>
+      </c>
+      <c r="N30">
+        <v>0.9771637932690833</v>
+      </c>
+      <c r="O30">
+        <v>0.9701612493334911</v>
+      </c>
+      <c r="P30">
+        <v>0.9824748789055006</v>
+      </c>
+      <c r="Q30">
+        <v>0.9824748789055006</v>
+      </c>
+      <c r="R30">
+        <v>0.9851304217237091</v>
+      </c>
+      <c r="S30">
+        <v>0.9851304217237091</v>
+      </c>
+      <c r="T30">
+        <v>0.9992644380800338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.043265038757767</v>
+      </c>
+      <c r="D31">
+        <v>0.9081613861458562</v>
+      </c>
+      <c r="E31">
+        <v>0.9081613861458562</v>
+      </c>
+      <c r="F31">
+        <v>0.9785948195097198</v>
+      </c>
+      <c r="G31">
+        <v>0.9785948195097198</v>
+      </c>
+      <c r="H31">
+        <v>0.9520845553740876</v>
+      </c>
+      <c r="I31">
+        <v>1.084618288073668</v>
+      </c>
+      <c r="J31">
+        <v>1.024231964145669</v>
+      </c>
+      <c r="K31">
+        <v>0.9785948195097198</v>
+      </c>
+      <c r="L31">
+        <v>1.043265038757767</v>
+      </c>
+      <c r="M31">
+        <v>0.9757132124518115</v>
+      </c>
+      <c r="N31">
+        <v>0.9757132124518115</v>
+      </c>
+      <c r="O31">
+        <v>0.9678369934259036</v>
+      </c>
+      <c r="P31">
+        <v>0.976673748137781</v>
+      </c>
+      <c r="Q31">
+        <v>0.976673748137781</v>
+      </c>
+      <c r="R31">
+        <v>0.9771540159807657</v>
+      </c>
+      <c r="S31">
+        <v>0.9771540159807657</v>
+      </c>
+      <c r="T31">
+        <v>0.9984926753344613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.040311478767123</v>
+      </c>
+      <c r="D32">
+        <v>0.6927187326301371</v>
+      </c>
+      <c r="E32">
+        <v>0.6927187326301371</v>
+      </c>
+      <c r="F32">
+        <v>1.11131779369863</v>
+      </c>
+      <c r="G32">
+        <v>1.11131779369863</v>
+      </c>
+      <c r="H32">
+        <v>0.8864052336986302</v>
+      </c>
+      <c r="I32">
+        <v>1.054861025342466</v>
+      </c>
+      <c r="J32">
+        <v>1.060418543013699</v>
+      </c>
+      <c r="K32">
+        <v>1.11131779369863</v>
+      </c>
+      <c r="L32">
+        <v>1.040311478767123</v>
+      </c>
+      <c r="M32">
+        <v>0.86651510569863</v>
+      </c>
+      <c r="N32">
+        <v>0.86651510569863</v>
+      </c>
+      <c r="O32">
+        <v>0.8731451483652967</v>
+      </c>
+      <c r="P32">
+        <v>0.94811600169863</v>
+      </c>
+      <c r="Q32">
+        <v>0.94811600169863</v>
+      </c>
+      <c r="R32">
+        <v>0.98891644969863</v>
+      </c>
+      <c r="S32">
+        <v>0.98891644969863</v>
+      </c>
+      <c r="T32">
+        <v>0.9743388011917807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.115914820526316</v>
+      </c>
+      <c r="D33">
+        <v>0.9472645219473684</v>
+      </c>
+      <c r="E33">
+        <v>0.9472645219473684</v>
+      </c>
+      <c r="F33">
+        <v>0.8602364642105264</v>
+      </c>
+      <c r="G33">
+        <v>0.8602364642105264</v>
+      </c>
+      <c r="H33">
+        <v>0.8631925705263157</v>
+      </c>
+      <c r="I33">
+        <v>1.445799656315789</v>
+      </c>
+      <c r="J33">
+        <v>1.039817965263158</v>
+      </c>
+      <c r="K33">
+        <v>0.8602364642105264</v>
+      </c>
+      <c r="L33">
+        <v>1.115914820526316</v>
+      </c>
+      <c r="M33">
+        <v>1.031589671236842</v>
+      </c>
+      <c r="N33">
+        <v>1.031589671236842</v>
+      </c>
+      <c r="O33">
+        <v>0.9754573043333333</v>
+      </c>
+      <c r="P33">
+        <v>0.9744719355614037</v>
+      </c>
+      <c r="Q33">
+        <v>0.9744719355614034</v>
+      </c>
+      <c r="R33">
+        <v>0.9459130677236842</v>
+      </c>
+      <c r="S33">
+        <v>0.9459130677236842</v>
+      </c>
+      <c r="T33">
+        <v>1.045370999798245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.060289838947369</v>
+      </c>
+      <c r="D34">
+        <v>0.3333293631578947</v>
+      </c>
+      <c r="E34">
+        <v>0.3333293631578947</v>
+      </c>
+      <c r="F34">
+        <v>1.401508654736842</v>
+      </c>
+      <c r="G34">
+        <v>1.401508654736842</v>
+      </c>
+      <c r="H34">
+        <v>0.6720476578947369</v>
+      </c>
+      <c r="I34">
+        <v>1.100961523157895</v>
+      </c>
+      <c r="J34">
+        <v>1.158529273684211</v>
+      </c>
+      <c r="K34">
+        <v>1.401508654736842</v>
+      </c>
+      <c r="L34">
+        <v>1.060289838947369</v>
+      </c>
+      <c r="M34">
+        <v>0.6968096010526317</v>
+      </c>
+      <c r="N34">
+        <v>0.6968096010526317</v>
+      </c>
+      <c r="O34">
+        <v>0.6885556200000001</v>
+      </c>
+      <c r="P34">
+        <v>0.9317092856140352</v>
+      </c>
+      <c r="Q34">
+        <v>0.9317092856140352</v>
+      </c>
+      <c r="R34">
+        <v>1.049159127894737</v>
+      </c>
+      <c r="S34">
+        <v>1.049159127894737</v>
+      </c>
+      <c r="T34">
+        <v>0.9544443852631579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.163370697750845</v>
+      </c>
+      <c r="D35">
+        <v>0.6868604381508305</v>
+      </c>
+      <c r="E35">
+        <v>0.6868604381508305</v>
+      </c>
+      <c r="F35">
+        <v>0.9101373530321807</v>
+      </c>
+      <c r="G35">
+        <v>0.9101373530321807</v>
+      </c>
+      <c r="H35">
+        <v>0.8264880608622697</v>
+      </c>
+      <c r="I35">
+        <v>1.304539346627587</v>
+      </c>
+      <c r="J35">
+        <v>1.088345530646248</v>
+      </c>
+      <c r="K35">
+        <v>0.9101373530321807</v>
+      </c>
+      <c r="L35">
+        <v>1.163370697750845</v>
+      </c>
+      <c r="M35">
+        <v>0.9251155679508378</v>
+      </c>
+      <c r="N35">
+        <v>0.9251155679508378</v>
+      </c>
+      <c r="O35">
+        <v>0.8922397322546485</v>
+      </c>
+      <c r="P35">
+        <v>0.9201228296446188</v>
+      </c>
+      <c r="Q35">
+        <v>0.9201228296446188</v>
+      </c>
+      <c r="R35">
+        <v>0.9176264604915092</v>
+      </c>
+      <c r="S35">
+        <v>0.9176264604915092</v>
+      </c>
+      <c r="T35">
+        <v>0.9966235711783269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000686126301871</v>
+      </c>
+      <c r="D36">
+        <v>1.000683507722199</v>
+      </c>
+      <c r="E36">
+        <v>1.000683507722199</v>
+      </c>
+      <c r="F36">
+        <v>0.9981705734745558</v>
+      </c>
+      <c r="G36">
+        <v>0.9981705734745558</v>
+      </c>
+      <c r="H36">
+        <v>1.000047053300127</v>
+      </c>
+      <c r="I36">
+        <v>1.001732631684872</v>
+      </c>
+      <c r="J36">
+        <v>0.9999427151774737</v>
+      </c>
+      <c r="K36">
+        <v>0.9981705734745558</v>
+      </c>
+      <c r="L36">
+        <v>1.000686126301871</v>
+      </c>
+      <c r="M36">
+        <v>1.000684817012035</v>
+      </c>
+      <c r="N36">
+        <v>1.000684817012035</v>
+      </c>
+      <c r="O36">
+        <v>1.000472229108066</v>
+      </c>
+      <c r="P36">
+        <v>0.9998467358328753</v>
+      </c>
+      <c r="Q36">
+        <v>0.9998467358328753</v>
+      </c>
+      <c r="R36">
+        <v>0.9994276952432954</v>
+      </c>
+      <c r="S36">
+        <v>0.9994276952432954</v>
+      </c>
+      <c r="T36">
+        <v>1.000210434610183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9995087254452814</v>
+      </c>
+      <c r="D37">
+        <v>0.9980822192435786</v>
+      </c>
+      <c r="E37">
+        <v>0.9980822192435786</v>
+      </c>
+      <c r="F37">
+        <v>1.002340113333077</v>
+      </c>
+      <c r="G37">
+        <v>1.002340113333077</v>
+      </c>
+      <c r="H37">
+        <v>0.9994635346055966</v>
+      </c>
+      <c r="I37">
+        <v>0.9982140795159135</v>
+      </c>
+      <c r="J37">
+        <v>1.000349993892073</v>
+      </c>
+      <c r="K37">
+        <v>1.002340113333077</v>
+      </c>
+      <c r="L37">
+        <v>0.9995087254452814</v>
+      </c>
+      <c r="M37">
+        <v>0.99879547234443</v>
+      </c>
+      <c r="N37">
+        <v>0.99879547234443</v>
+      </c>
+      <c r="O37">
+        <v>0.9990181597648188</v>
+      </c>
+      <c r="P37">
+        <v>0.9999770193406459</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999770193406458</v>
+      </c>
+      <c r="R37">
+        <v>1.000567792838754</v>
+      </c>
+      <c r="S37">
+        <v>1.000567792838754</v>
+      </c>
+      <c r="T37">
+        <v>0.9996597776725867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.00235188171285</v>
+      </c>
+      <c r="D38">
+        <v>0.9981266846005976</v>
+      </c>
+      <c r="E38">
+        <v>0.9981266846005976</v>
+      </c>
+      <c r="F38">
+        <v>0.9964393185753669</v>
+      </c>
+      <c r="G38">
+        <v>0.9964393185753669</v>
+      </c>
+      <c r="H38">
+        <v>0.9986951268109231</v>
+      </c>
+      <c r="I38">
+        <v>1.005628176194989</v>
+      </c>
+      <c r="J38">
+        <v>1.000550059148487</v>
+      </c>
+      <c r="K38">
+        <v>0.9964393185753669</v>
+      </c>
+      <c r="L38">
+        <v>1.00235188171285</v>
+      </c>
+      <c r="M38">
+        <v>1.000239283156724</v>
+      </c>
+      <c r="N38">
+        <v>1.000239283156724</v>
+      </c>
+      <c r="O38">
+        <v>0.9997245643747902</v>
+      </c>
+      <c r="P38">
+        <v>0.9989726282962715</v>
+      </c>
+      <c r="Q38">
+        <v>0.9989726282962715</v>
+      </c>
+      <c r="R38">
+        <v>0.9983393008660454</v>
+      </c>
+      <c r="S38">
+        <v>0.9983393008660454</v>
+      </c>
+      <c r="T38">
+        <v>1.000298541173869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.008113079963895</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9974811953905014</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9974811953905014</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9842945987992641</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9842945987992641</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9974404873054427</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.019616000973442</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.001042597457913</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9842945987992641</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.008113079963895</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.002797137677198</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.002797137677198</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00101158755328</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9966296247178867</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9966296247178867</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9935458682382311</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9935458682382311</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.001331326648409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.068849198005687</v>
+      </c>
+      <c r="D40">
+        <v>0.8492744513960029</v>
+      </c>
+      <c r="E40">
+        <v>0.8492744513960029</v>
+      </c>
+      <c r="F40">
+        <v>0.9822040328377324</v>
+      </c>
+      <c r="G40">
+        <v>0.9822040328377324</v>
+      </c>
+      <c r="H40">
+        <v>0.8916426710092592</v>
+      </c>
+      <c r="I40">
+        <v>1.22173989780756</v>
+      </c>
+      <c r="J40">
+        <v>1.043389855209019</v>
+      </c>
+      <c r="K40">
+        <v>0.9822040328377324</v>
+      </c>
+      <c r="L40">
+        <v>1.068849198005687</v>
+      </c>
+      <c r="M40">
+        <v>0.9590618247008448</v>
+      </c>
+      <c r="N40">
+        <v>0.9590618247008448</v>
+      </c>
+      <c r="O40">
+        <v>0.9365887734703162</v>
+      </c>
+      <c r="P40">
+        <v>0.9667758940798074</v>
+      </c>
+      <c r="Q40">
+        <v>0.9667758940798074</v>
+      </c>
+      <c r="R40">
+        <v>0.9706329287692886</v>
+      </c>
+      <c r="S40">
+        <v>0.9706329287692886</v>
+      </c>
+      <c r="T40">
+        <v>1.009516684377543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9973546062515239</v>
+      </c>
+      <c r="D41">
+        <v>0.9939271948638542</v>
+      </c>
+      <c r="E41">
+        <v>0.9939271948638542</v>
+      </c>
+      <c r="F41">
+        <v>1.007927838795837</v>
+      </c>
+      <c r="G41">
+        <v>1.007927838795837</v>
+      </c>
+      <c r="H41">
+        <v>1.000928729578721</v>
+      </c>
+      <c r="I41">
+        <v>0.9875329279843612</v>
+      </c>
+      <c r="J41">
+        <v>1.000423898674937</v>
+      </c>
+      <c r="K41">
+        <v>1.007927838795837</v>
+      </c>
+      <c r="L41">
+        <v>0.9973546062515239</v>
+      </c>
+      <c r="M41">
+        <v>0.9956409005576891</v>
+      </c>
+      <c r="N41">
+        <v>0.9956409005576891</v>
+      </c>
+      <c r="O41">
+        <v>0.9974035102313663</v>
+      </c>
+      <c r="P41">
+        <v>0.9997365466370719</v>
+      </c>
+      <c r="Q41">
+        <v>0.999736546637072</v>
+      </c>
+      <c r="R41">
+        <v>1.001784369676763</v>
+      </c>
+      <c r="S41">
+        <v>1.001784369676763</v>
+      </c>
+      <c r="T41">
+        <v>0.9980158660248725</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.07012628169909</v>
+      </c>
+      <c r="D42">
+        <v>0.8555885951594787</v>
+      </c>
+      <c r="E42">
+        <v>0.8555885951594787</v>
+      </c>
+      <c r="F42">
+        <v>0.9770792752585657</v>
+      </c>
+      <c r="G42">
+        <v>0.9770792752585657</v>
+      </c>
+      <c r="H42">
+        <v>0.8914818979213901</v>
+      </c>
+      <c r="I42">
+        <v>1.229400759821922</v>
+      </c>
+      <c r="J42">
+        <v>1.042760645661744</v>
+      </c>
+      <c r="K42">
+        <v>0.9770792752585657</v>
+      </c>
+      <c r="L42">
+        <v>1.07012628169909</v>
+      </c>
+      <c r="M42">
+        <v>0.9628574384292845</v>
+      </c>
+      <c r="N42">
+        <v>0.9628574384292845</v>
+      </c>
+      <c r="O42">
+        <v>0.9390655915933198</v>
+      </c>
+      <c r="P42">
+        <v>0.9675980507057117</v>
+      </c>
+      <c r="Q42">
+        <v>0.9675980507057117</v>
+      </c>
+      <c r="R42">
+        <v>0.9699683568439252</v>
+      </c>
+      <c r="S42">
+        <v>0.9699683568439252</v>
+      </c>
+      <c r="T42">
+        <v>1.011072909253699</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003964997850335</v>
+        <v>1.000700476361845</v>
       </c>
       <c r="D3">
-        <v>0.9868703639704505</v>
+        <v>0.997879275739615</v>
       </c>
       <c r="E3">
-        <v>1.002035251669052</v>
+        <v>0.997879275739615</v>
       </c>
       <c r="F3">
-        <v>1.003964997850335</v>
+        <v>1.000229189164147</v>
       </c>
       <c r="G3">
-        <v>1.002781419064708</v>
+        <v>1.000229189164147</v>
       </c>
       <c r="H3">
-        <v>0.9952502692285892</v>
+        <v>0.9988712308688232</v>
       </c>
       <c r="I3">
-        <v>1.002568724690514</v>
+        <v>1.001349494325245</v>
       </c>
       <c r="J3">
-        <v>0.9868703639704505</v>
+        <v>1.000554423597525</v>
       </c>
       <c r="K3">
-        <v>1.003964997850335</v>
+        <v>1.000229189164147</v>
       </c>
       <c r="L3">
-        <v>1.002035251669052</v>
+        <v>1.000700476361845</v>
       </c>
       <c r="M3">
-        <v>0.9944528078197514</v>
+        <v>0.9992898760507298</v>
       </c>
       <c r="N3">
-        <v>0.9944528078197514</v>
+        <v>0.9992898760507298</v>
       </c>
       <c r="O3">
-        <v>0.994718628289364</v>
+        <v>0.9991503276567609</v>
       </c>
       <c r="P3">
-        <v>0.9976235378299458</v>
+        <v>0.9996029804218689</v>
       </c>
       <c r="Q3">
-        <v>0.9976235378299458</v>
+        <v>0.9996029804218688</v>
       </c>
       <c r="R3">
-        <v>0.999208902835043</v>
+        <v>0.9997595326074383</v>
       </c>
       <c r="S3">
-        <v>0.999208902835043</v>
+        <v>0.9997595326074383</v>
       </c>
       <c r="T3">
-        <v>0.9989118377456082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999306816761999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008076540804246</v>
+        <v>1.068849198005687</v>
       </c>
       <c r="D4">
-        <v>0.9748632270115449</v>
+        <v>0.8492744513960029</v>
       </c>
       <c r="E4">
-        <v>1.003747831669749</v>
+        <v>0.8492744513960029</v>
       </c>
       <c r="F4">
-        <v>1.008076540804246</v>
+        <v>0.9822040328377324</v>
       </c>
       <c r="G4">
-        <v>1.005155112297771</v>
+        <v>0.9822040328377324</v>
       </c>
       <c r="H4">
-        <v>0.9907689160690064</v>
+        <v>0.8916426710092592</v>
       </c>
       <c r="I4">
-        <v>1.004953677216206</v>
+        <v>1.22173989780756</v>
       </c>
       <c r="J4">
-        <v>0.9748632270115449</v>
+        <v>1.043389855209019</v>
       </c>
       <c r="K4">
-        <v>1.008076540804246</v>
+        <v>0.9822040328377324</v>
       </c>
       <c r="L4">
-        <v>1.003747831669749</v>
+        <v>1.068849198005687</v>
       </c>
       <c r="M4">
-        <v>0.989305529340647</v>
+        <v>0.9590618247008448</v>
       </c>
       <c r="N4">
-        <v>0.989305529340647</v>
+        <v>0.9590618247008448</v>
       </c>
       <c r="O4">
-        <v>0.9897933249167669</v>
+        <v>0.9365887734703162</v>
       </c>
       <c r="P4">
-        <v>0.9955625331618467</v>
+        <v>0.9667758940798074</v>
       </c>
       <c r="Q4">
-        <v>0.9955625331618467</v>
+        <v>0.9667758940798074</v>
       </c>
       <c r="R4">
-        <v>0.9986910350724465</v>
+        <v>0.9706329287692886</v>
       </c>
       <c r="S4">
-        <v>0.9986910350724465</v>
+        <v>0.9706329287692886</v>
       </c>
       <c r="T4">
-        <v>0.997927550844754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.009516684377543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.014151341784344</v>
+        <v>1.040165856786745</v>
       </c>
       <c r="D5">
-        <v>0.9519300493538951</v>
+        <v>0.8980296310864576</v>
       </c>
       <c r="E5">
-        <v>1.007713872798316</v>
+        <v>0.8980296310864576</v>
       </c>
       <c r="F5">
-        <v>1.014151341784344</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="G5">
-        <v>1.010895208972442</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="H5">
-        <v>0.9824023634828642</v>
+        <v>0.9447570561743522</v>
       </c>
       <c r="I5">
-        <v>1.009473479247479</v>
+        <v>1.083517109884723</v>
       </c>
       <c r="J5">
-        <v>0.9519300493538951</v>
+        <v>1.02690461223343</v>
       </c>
       <c r="K5">
-        <v>1.014151341784344</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="L5">
-        <v>1.007713872798316</v>
+        <v>1.040165856786745</v>
       </c>
       <c r="M5">
-        <v>0.9798219610761054</v>
+        <v>0.9690977439366013</v>
       </c>
       <c r="N5">
-        <v>0.9798219610761054</v>
+        <v>0.9690977439366013</v>
       </c>
       <c r="O5">
-        <v>0.9806820952116917</v>
+        <v>0.960984181349185</v>
       </c>
       <c r="P5">
-        <v>0.9912650879788517</v>
+        <v>0.9778528518679165</v>
       </c>
       <c r="Q5">
-        <v>0.9912650879788517</v>
+        <v>0.9778528518679165</v>
       </c>
       <c r="R5">
-        <v>0.9969866514302248</v>
+        <v>0.982230405833574</v>
       </c>
       <c r="S5">
-        <v>0.9969866514302248</v>
+        <v>0.982230405833574</v>
       </c>
       <c r="T5">
-        <v>0.9960943859398901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9981228889827092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.020249549403172</v>
+        <v>1.163370697750845</v>
       </c>
       <c r="D6">
-        <v>0.9292030832980507</v>
+        <v>0.6868604381508305</v>
       </c>
       <c r="E6">
-        <v>1.011333047954771</v>
+        <v>0.6868604381508305</v>
       </c>
       <c r="F6">
-        <v>1.020249549403172</v>
+        <v>0.9101373530321807</v>
       </c>
       <c r="G6">
-        <v>1.017112053712685</v>
+        <v>0.9101373530321807</v>
       </c>
       <c r="H6">
-        <v>0.9744453017110146</v>
+        <v>0.8264880608622697</v>
       </c>
       <c r="I6">
-        <v>1.013648141617359</v>
+        <v>1.304539346627587</v>
       </c>
       <c r="J6">
-        <v>0.9292030832980507</v>
+        <v>1.088345530646248</v>
       </c>
       <c r="K6">
-        <v>1.020249549403172</v>
+        <v>0.9101373530321807</v>
       </c>
       <c r="L6">
-        <v>1.011333047954771</v>
+        <v>1.163370697750845</v>
       </c>
       <c r="M6">
-        <v>0.9702680656264109</v>
+        <v>0.9251155679508378</v>
       </c>
       <c r="N6">
-        <v>0.9702680656264109</v>
+        <v>0.9251155679508378</v>
       </c>
       <c r="O6">
-        <v>0.9716604776546122</v>
+        <v>0.8922397322546485</v>
       </c>
       <c r="P6">
-        <v>0.9869285602186647</v>
+        <v>0.9201228296446188</v>
       </c>
       <c r="Q6">
-        <v>0.9869285602186647</v>
+        <v>0.9201228296446188</v>
       </c>
       <c r="R6">
-        <v>0.9952588075147917</v>
+        <v>0.9176264604915092</v>
       </c>
       <c r="S6">
-        <v>0.9952588075147917</v>
+        <v>0.9176264604915092</v>
       </c>
       <c r="T6">
-        <v>0.9943318629495086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9966235711783269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999655404125093</v>
+        <v>1.001746250990393</v>
       </c>
       <c r="D7">
-        <v>0.9992950170219053</v>
+        <v>0.9835289533875223</v>
       </c>
       <c r="E7">
-        <v>1.000288612920551</v>
+        <v>0.9835289533875223</v>
       </c>
       <c r="F7">
-        <v>0.9999655404125093</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="G7">
-        <v>1.000551028486647</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="H7">
-        <v>0.9996142550493444</v>
+        <v>0.9935053582077744</v>
       </c>
       <c r="I7">
-        <v>1.000191519808795</v>
+        <v>1.002394873263417</v>
       </c>
       <c r="J7">
-        <v>0.9992950170219053</v>
+        <v>1.003359711625994</v>
       </c>
       <c r="K7">
-        <v>0.9999655404125093</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="L7">
-        <v>1.000288612920551</v>
+        <v>1.001746250990393</v>
       </c>
       <c r="M7">
-        <v>0.9997918149712284</v>
+        <v>0.9926376021889578</v>
       </c>
       <c r="N7">
-        <v>0.9997918149712284</v>
+        <v>0.9926376021889578</v>
       </c>
       <c r="O7">
-        <v>0.9997326283306004</v>
+        <v>0.99292685419523</v>
       </c>
       <c r="P7">
-        <v>0.9998497234516553</v>
+        <v>0.9975443030607202</v>
       </c>
       <c r="Q7">
-        <v>0.9998497234516553</v>
+        <v>0.9975443030607204</v>
       </c>
       <c r="R7">
-        <v>0.9998786776918689</v>
+        <v>0.9999976534966015</v>
       </c>
       <c r="S7">
-        <v>0.9998786776918689</v>
+        <v>0.9999976534966015</v>
       </c>
       <c r="T7">
-        <v>0.9999843289499587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9986488087132243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000229189164147</v>
+        <v>0.9995087254452814</v>
       </c>
       <c r="D8">
-        <v>0.997879275739615</v>
+        <v>0.9980822192435786</v>
       </c>
       <c r="E8">
-        <v>1.000700476361845</v>
+        <v>0.9980822192435786</v>
       </c>
       <c r="F8">
-        <v>1.000229189164147</v>
+        <v>1.002340113333077</v>
       </c>
       <c r="G8">
-        <v>1.001349494325245</v>
+        <v>1.002340113333077</v>
       </c>
       <c r="H8">
-        <v>0.9988712308688232</v>
+        <v>0.9994635346055966</v>
       </c>
       <c r="I8">
-        <v>1.000554423597525</v>
+        <v>0.9982140795159135</v>
       </c>
       <c r="J8">
-        <v>0.997879275739615</v>
+        <v>1.000349993892073</v>
       </c>
       <c r="K8">
-        <v>1.000229189164147</v>
+        <v>1.002340113333077</v>
       </c>
       <c r="L8">
-        <v>1.000700476361845</v>
+        <v>0.9995087254452814</v>
       </c>
       <c r="M8">
-        <v>0.9992898760507298</v>
+        <v>0.99879547234443</v>
       </c>
       <c r="N8">
-        <v>0.9992898760507298</v>
+        <v>0.99879547234443</v>
       </c>
       <c r="O8">
-        <v>0.9991503276567609</v>
+        <v>0.9990181597648188</v>
       </c>
       <c r="P8">
-        <v>0.9996029804218688</v>
+        <v>0.9999770193406459</v>
       </c>
       <c r="Q8">
-        <v>0.9996029804218689</v>
+        <v>0.9999770193406458</v>
       </c>
       <c r="R8">
-        <v>0.9997595326074384</v>
+        <v>1.000567792838754</v>
       </c>
       <c r="S8">
-        <v>0.9997595326074384</v>
+        <v>1.000567792838754</v>
       </c>
       <c r="T8">
-        <v>0.9999306816762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9996597776725867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000889714836048</v>
+        <v>1.003747831669749</v>
       </c>
       <c r="D9">
-        <v>0.9969592385996345</v>
+        <v>0.9748632270115449</v>
       </c>
       <c r="E9">
-        <v>1.00072008879686</v>
+        <v>0.9748632270115449</v>
       </c>
       <c r="F9">
-        <v>1.000889714836048</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="G9">
-        <v>1.001463724951388</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="H9">
-        <v>0.9984281877169934</v>
+        <v>0.9907689160690064</v>
       </c>
       <c r="I9">
-        <v>1.000755830893859</v>
+        <v>1.005155112297771</v>
       </c>
       <c r="J9">
-        <v>0.9969592385996345</v>
+        <v>1.004953677216206</v>
       </c>
       <c r="K9">
-        <v>1.000889714836048</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="L9">
-        <v>1.00072008879686</v>
+        <v>1.003747831669749</v>
       </c>
       <c r="M9">
-        <v>0.9988396636982475</v>
+        <v>0.989305529340647</v>
       </c>
       <c r="N9">
-        <v>0.9988396636982475</v>
+        <v>0.989305529340647</v>
       </c>
       <c r="O9">
-        <v>0.9987025050378294</v>
+        <v>0.9897933249167669</v>
       </c>
       <c r="P9">
-        <v>0.9995230140775142</v>
+        <v>0.9955625331618467</v>
       </c>
       <c r="Q9">
-        <v>0.9995230140775142</v>
+        <v>0.9955625331618467</v>
       </c>
       <c r="R9">
-        <v>0.9998646892671476</v>
+        <v>0.9986910350724465</v>
       </c>
       <c r="S9">
-        <v>0.9998646892671476</v>
+        <v>0.9986910350724465</v>
       </c>
       <c r="T9">
-        <v>0.9998694642991306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.997927550844754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00122767303185</v>
+        <v>1.168048409601052</v>
       </c>
       <c r="D10">
-        <v>0.9935610833636789</v>
+        <v>0.6794145105336865</v>
       </c>
       <c r="E10">
-        <v>1.001839335445311</v>
+        <v>0.6794145105336865</v>
       </c>
       <c r="F10">
-        <v>1.00122767303185</v>
+        <v>0.9045274758664235</v>
       </c>
       <c r="G10">
-        <v>1.003684530467892</v>
+        <v>0.9045274758664235</v>
       </c>
       <c r="H10">
-        <v>0.9966325223948199</v>
+        <v>0.82435657667184</v>
       </c>
       <c r="I10">
-        <v>1.001632962732913</v>
+        <v>1.310083299167478</v>
       </c>
       <c r="J10">
-        <v>0.9935610833636789</v>
+        <v>1.089999933438201</v>
       </c>
       <c r="K10">
-        <v>1.00122767303185</v>
+        <v>0.9045274758664235</v>
       </c>
       <c r="L10">
-        <v>1.001839335445311</v>
+        <v>1.168048409601052</v>
       </c>
       <c r="M10">
-        <v>0.9977002094044949</v>
+        <v>0.9237314600673692</v>
       </c>
       <c r="N10">
-        <v>0.9977002094044949</v>
+        <v>0.9237314600673692</v>
       </c>
       <c r="O10">
-        <v>0.9973443137346032</v>
+        <v>0.8906064989355261</v>
       </c>
       <c r="P10">
-        <v>0.9988760306136131</v>
+        <v>0.9173301320003873</v>
       </c>
       <c r="Q10">
-        <v>0.9988760306136131</v>
+        <v>0.9173301320003873</v>
       </c>
       <c r="R10">
-        <v>0.9994639412181723</v>
+        <v>0.9141294679668963</v>
       </c>
       <c r="S10">
-        <v>0.9994639412181723</v>
+        <v>0.9141294679668963</v>
       </c>
       <c r="T10">
-        <v>0.9997630179060774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9960717008797801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003781631770135</v>
+        <v>1.066946700428858</v>
       </c>
       <c r="D11">
-        <v>0.9888695511265402</v>
+        <v>0.8403960508023202</v>
       </c>
       <c r="E11">
-        <v>1.002424286863152</v>
+        <v>0.8403960508023202</v>
       </c>
       <c r="F11">
-        <v>1.003781631770135</v>
+        <v>0.9898589539625355</v>
       </c>
       <c r="G11">
-        <v>1.004759929457045</v>
+        <v>0.9898589539625355</v>
       </c>
       <c r="H11">
-        <v>0.9942566907695909</v>
+        <v>0.8917290420910948</v>
       </c>
       <c r="I11">
-        <v>1.002770012423325</v>
+        <v>1.210887331600046</v>
       </c>
       <c r="J11">
-        <v>0.9888695511265402</v>
+        <v>1.044291477103144</v>
       </c>
       <c r="K11">
-        <v>1.003781631770135</v>
+        <v>0.9898589539625355</v>
       </c>
       <c r="L11">
-        <v>1.002424286863152</v>
+        <v>1.066946700428858</v>
       </c>
       <c r="M11">
-        <v>0.9956469189948461</v>
+        <v>0.953671375615589</v>
       </c>
       <c r="N11">
-        <v>0.9956469189948461</v>
+        <v>0.953671375615589</v>
       </c>
       <c r="O11">
-        <v>0.9951835095864278</v>
+        <v>0.9330239311074243</v>
       </c>
       <c r="P11">
-        <v>0.9983584899199425</v>
+        <v>0.9657339017312379</v>
       </c>
       <c r="Q11">
-        <v>0.9983584899199425</v>
+        <v>0.9657339017312379</v>
       </c>
       <c r="R11">
-        <v>0.9997142753824907</v>
+        <v>0.9717651647890623</v>
       </c>
       <c r="S11">
-        <v>0.9997142753824907</v>
+        <v>0.9717651647890623</v>
       </c>
       <c r="T11">
-        <v>0.9994770170682979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.007351592664666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9423444188058533</v>
+        <v>1.049673912073686</v>
       </c>
       <c r="D12">
-        <v>1.077850615863723</v>
+        <v>0.8955836730421068</v>
       </c>
       <c r="E12">
-        <v>0.9846342279396677</v>
+        <v>0.8955836730421068</v>
       </c>
       <c r="F12">
-        <v>0.9423444188058533</v>
+        <v>0.9760726872947384</v>
       </c>
       <c r="G12">
-        <v>0.8743019070197311</v>
+        <v>0.9760726872947384</v>
       </c>
       <c r="H12">
-        <v>1.083254412507265</v>
+        <v>0.9445804892947387</v>
       </c>
       <c r="I12">
-        <v>0.9724519891830442</v>
+        <v>1.096722368494733</v>
       </c>
       <c r="J12">
-        <v>1.077850615863723</v>
+        <v>1.02794296696842</v>
       </c>
       <c r="K12">
-        <v>0.9423444188058533</v>
+        <v>0.9760726872947384</v>
       </c>
       <c r="L12">
-        <v>0.9846342279396677</v>
+        <v>1.049673912073686</v>
       </c>
       <c r="M12">
-        <v>1.031242421901695</v>
+        <v>0.9726287925578967</v>
       </c>
       <c r="N12">
-        <v>1.031242421901695</v>
+        <v>0.9726287925578967</v>
       </c>
       <c r="O12">
-        <v>1.048579752103552</v>
+        <v>0.9632793581368441</v>
       </c>
       <c r="P12">
-        <v>1.001609754203081</v>
+        <v>0.9737767574701772</v>
       </c>
       <c r="Q12">
-        <v>1.001609754203081</v>
+        <v>0.9737767574701772</v>
       </c>
       <c r="R12">
-        <v>0.9867934203537744</v>
+        <v>0.9743507399263175</v>
       </c>
       <c r="S12">
-        <v>0.9867934203537744</v>
+        <v>0.9743507399263175</v>
       </c>
       <c r="T12">
-        <v>0.9891395952198808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9984293495280707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.025921695718824</v>
+        <v>0.9860538960212809</v>
       </c>
       <c r="D13">
-        <v>1.10987825422186</v>
+        <v>1.054370437174706</v>
       </c>
       <c r="E13">
-        <v>0.9624407429395495</v>
+        <v>1.054370437174706</v>
       </c>
       <c r="F13">
-        <v>1.025921695718824</v>
+        <v>0.9815474538306964</v>
       </c>
       <c r="G13">
-        <v>1.004824163618326</v>
+        <v>0.9815474538306964</v>
       </c>
       <c r="H13">
-        <v>1.015031001414542</v>
+        <v>1.036186596318695</v>
       </c>
       <c r="I13">
-        <v>0.9808753779544395</v>
+        <v>0.9542605503846695</v>
       </c>
       <c r="J13">
-        <v>1.10987825422186</v>
+        <v>0.9847337279419706</v>
       </c>
       <c r="K13">
-        <v>1.025921695718824</v>
+        <v>0.9815474538306964</v>
       </c>
       <c r="L13">
-        <v>0.9624407429395495</v>
+        <v>0.9860538960212809</v>
       </c>
       <c r="M13">
-        <v>1.036159498580705</v>
+        <v>1.020212166597994</v>
       </c>
       <c r="N13">
-        <v>1.036159498580705</v>
+        <v>1.020212166597994</v>
       </c>
       <c r="O13">
-        <v>1.029116666191983</v>
+        <v>1.025536976504894</v>
       </c>
       <c r="P13">
-        <v>1.032746897626744</v>
+        <v>1.007323929008894</v>
       </c>
       <c r="Q13">
-        <v>1.032746897626744</v>
+        <v>1.007323929008894</v>
       </c>
       <c r="R13">
-        <v>1.031040597149764</v>
+        <v>1.000879810214345</v>
       </c>
       <c r="S13">
-        <v>1.031040597149764</v>
+        <v>1.000879810214345</v>
       </c>
       <c r="T13">
-        <v>1.016495205977923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.999525443612003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7501841524247997</v>
+        <v>1.2942121</v>
       </c>
       <c r="D14">
-        <v>1.63771546562962</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="E14">
-        <v>0.9159800444280666</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="F14">
-        <v>0.7501841524247997</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="G14">
-        <v>0.9228204328098136</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="H14">
-        <v>1.243374808094663</v>
+        <v>0.6955921500000009</v>
       </c>
       <c r="I14">
-        <v>0.8674354756491461</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="J14">
-        <v>1.63771546562962</v>
+        <v>1.1562985</v>
       </c>
       <c r="K14">
-        <v>0.7501841524247997</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="L14">
-        <v>0.9159800444280666</v>
+        <v>1.2942121</v>
       </c>
       <c r="M14">
-        <v>1.276847755028843</v>
+        <v>0.8716505849999996</v>
       </c>
       <c r="N14">
-        <v>1.276847755028843</v>
+        <v>0.8716505849999996</v>
       </c>
       <c r="O14">
-        <v>1.265690106050783</v>
+        <v>0.81296444</v>
       </c>
       <c r="P14">
-        <v>1.101293220827495</v>
+        <v>0.8574266066666669</v>
       </c>
       <c r="Q14">
-        <v>1.101293220827495</v>
+        <v>0.8574266066666668</v>
       </c>
       <c r="R14">
-        <v>1.013515953726821</v>
+        <v>0.8503146175000005</v>
       </c>
       <c r="S14">
-        <v>1.013515953726821</v>
+        <v>0.8503146175000005</v>
       </c>
       <c r="T14">
-        <v>1.056251729839351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9937195783333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9900428410959422</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="D15">
-        <v>0.9738478690681243</v>
+        <v>0.21885897</v>
       </c>
       <c r="E15">
-        <v>0.9817792847120265</v>
+        <v>0.21885897</v>
       </c>
       <c r="F15">
-        <v>0.9900428410959422</v>
+        <v>1.9813918</v>
       </c>
       <c r="G15">
-        <v>0.8182991208147528</v>
+        <v>1.9813918</v>
       </c>
       <c r="H15">
-        <v>1.075123391084751</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I15">
-        <v>0.9842458139748651</v>
+        <v>0.66920919</v>
       </c>
       <c r="J15">
-        <v>0.9738478690681243</v>
+        <v>1.1585466</v>
       </c>
       <c r="K15">
-        <v>0.9900428410959422</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>0.9817792847120265</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>0.9778135768900753</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>0.9778135768900753</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>1.010250181621634</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>0.9818899982920309</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>0.9818899982920309</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>0.9839282089930087</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>0.9839282089930087</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>0.9705563867917436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9981705734745555</v>
+        <v>1.538147</v>
       </c>
       <c r="D16">
-        <v>1.0006835077222</v>
+        <v>0.054357122</v>
       </c>
       <c r="E16">
-        <v>1.000686126301871</v>
+        <v>0.054357122</v>
       </c>
       <c r="F16">
-        <v>0.9981705734745555</v>
+        <v>0.66920919</v>
       </c>
       <c r="G16">
-        <v>1.001732631684872</v>
+        <v>0.66920919</v>
       </c>
       <c r="H16">
-        <v>1.000047053300127</v>
+        <v>0.2238942</v>
       </c>
       <c r="I16">
-        <v>0.9999427151774736</v>
+        <v>2.955281</v>
       </c>
       <c r="J16">
-        <v>1.0006835077222</v>
+        <v>1.2800742</v>
       </c>
       <c r="K16">
-        <v>0.9981705734745555</v>
+        <v>0.66920919</v>
       </c>
       <c r="L16">
-        <v>1.000686126301871</v>
+        <v>1.538147</v>
       </c>
       <c r="M16">
-        <v>1.000684817012035</v>
+        <v>0.796252061</v>
       </c>
       <c r="N16">
-        <v>1.000684817012035</v>
+        <v>0.796252061</v>
       </c>
       <c r="O16">
-        <v>1.000472229108066</v>
+        <v>0.6054661073333333</v>
       </c>
       <c r="P16">
-        <v>0.9998467358328753</v>
+        <v>0.7539044373333333</v>
       </c>
       <c r="Q16">
-        <v>0.9998467358328753</v>
+        <v>0.7539044373333333</v>
       </c>
       <c r="R16">
-        <v>0.9994276952432953</v>
+        <v>0.7327306255</v>
       </c>
       <c r="S16">
-        <v>0.9994276952432953</v>
+        <v>0.7327306255</v>
       </c>
       <c r="T16">
-        <v>1.000210434610183</v>
+        <v>1.120160452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002340113333077</v>
+        <v>0.92895662</v>
       </c>
       <c r="D17">
-        <v>0.9980822192435795</v>
+        <v>0.78554135</v>
       </c>
       <c r="E17">
-        <v>0.9995087254452814</v>
+        <v>0.78554135</v>
       </c>
       <c r="F17">
-        <v>1.002340113333077</v>
+        <v>1.2921456</v>
       </c>
       <c r="G17">
-        <v>0.9982140795159123</v>
+        <v>1.2921456</v>
       </c>
       <c r="H17">
-        <v>0.9994635346055966</v>
+        <v>0.9657742900000001</v>
       </c>
       <c r="I17">
-        <v>1.000349993892073</v>
+        <v>0.7030752300000001</v>
       </c>
       <c r="J17">
-        <v>0.9980822192435795</v>
+        <v>1.0311108</v>
       </c>
       <c r="K17">
-        <v>1.002340113333077</v>
+        <v>1.2921456</v>
       </c>
       <c r="L17">
-        <v>0.9995087254452814</v>
+        <v>0.92895662</v>
       </c>
       <c r="M17">
-        <v>0.9987954723444304</v>
+        <v>0.857248985</v>
       </c>
       <c r="N17">
-        <v>0.9987954723444304</v>
+        <v>0.857248985</v>
       </c>
       <c r="O17">
-        <v>0.9990181597648191</v>
+        <v>0.8934240866666667</v>
       </c>
       <c r="P17">
-        <v>0.9999770193406462</v>
+        <v>1.002214523333333</v>
       </c>
       <c r="Q17">
-        <v>0.999977019340646</v>
+        <v>1.002214523333333</v>
       </c>
       <c r="R17">
-        <v>1.000567792838754</v>
+        <v>1.0746972925</v>
       </c>
       <c r="S17">
-        <v>1.000567792838754</v>
+        <v>1.0746972925</v>
       </c>
       <c r="T17">
-        <v>0.9996597776725867</v>
+        <v>0.9511006483333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9964393185753668</v>
+        <v>1.040311478767123</v>
       </c>
       <c r="D18">
-        <v>0.9981266846005976</v>
+        <v>0.6927187326301371</v>
       </c>
       <c r="E18">
-        <v>1.00235188171285</v>
+        <v>0.6927187326301371</v>
       </c>
       <c r="F18">
-        <v>0.9964393185753668</v>
+        <v>1.11131779369863</v>
       </c>
       <c r="G18">
-        <v>1.00562817619499</v>
+        <v>1.11131779369863</v>
       </c>
       <c r="H18">
-        <v>0.9986951268109231</v>
+        <v>0.8864052336986302</v>
       </c>
       <c r="I18">
-        <v>1.000550059148487</v>
+        <v>1.054861025342466</v>
       </c>
       <c r="J18">
-        <v>0.9981266846005976</v>
+        <v>1.060418543013699</v>
       </c>
       <c r="K18">
-        <v>0.9964393185753668</v>
+        <v>1.11131779369863</v>
       </c>
       <c r="L18">
-        <v>1.00235188171285</v>
+        <v>1.040311478767123</v>
       </c>
       <c r="M18">
-        <v>1.000239283156724</v>
+        <v>0.86651510569863</v>
       </c>
       <c r="N18">
-        <v>1.000239283156724</v>
+        <v>0.86651510569863</v>
       </c>
       <c r="O18">
-        <v>0.9997245643747902</v>
+        <v>0.8731451483652967</v>
       </c>
       <c r="P18">
-        <v>0.9989726282962715</v>
+        <v>0.94811600169863</v>
       </c>
       <c r="Q18">
-        <v>0.9989726282962715</v>
+        <v>0.94811600169863</v>
       </c>
       <c r="R18">
-        <v>0.9983393008660453</v>
+        <v>0.98891644969863</v>
       </c>
       <c r="S18">
-        <v>0.9983393008660453</v>
+        <v>0.98891644969863</v>
       </c>
       <c r="T18">
-        <v>1.000298541173869</v>
+        <v>0.9743388011917807</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9842945987992641</v>
+        <v>1.115914820526316</v>
       </c>
       <c r="D19">
-        <v>0.9974811953905014</v>
+        <v>0.9472645219473684</v>
       </c>
       <c r="E19">
-        <v>1.008113079963895</v>
+        <v>0.9472645219473684</v>
       </c>
       <c r="F19">
-        <v>0.9842945987992641</v>
+        <v>0.8602364642105264</v>
       </c>
       <c r="G19">
-        <v>1.019616000973442</v>
+        <v>0.8602364642105264</v>
       </c>
       <c r="H19">
-        <v>0.9974404873054427</v>
+        <v>0.8631925705263157</v>
       </c>
       <c r="I19">
-        <v>1.001042597457913</v>
+        <v>1.445799656315789</v>
       </c>
       <c r="J19">
-        <v>0.9974811953905014</v>
+        <v>1.039817965263158</v>
       </c>
       <c r="K19">
-        <v>0.9842945987992641</v>
+        <v>0.8602364642105264</v>
       </c>
       <c r="L19">
-        <v>1.008113079963895</v>
+        <v>1.115914820526316</v>
       </c>
       <c r="M19">
-        <v>1.002797137677198</v>
+        <v>1.031589671236842</v>
       </c>
       <c r="N19">
-        <v>1.002797137677198</v>
+        <v>1.031589671236842</v>
       </c>
       <c r="O19">
-        <v>1.00101158755328</v>
+        <v>0.9754573043333333</v>
       </c>
       <c r="P19">
-        <v>0.9966296247178867</v>
+        <v>0.9744719355614037</v>
       </c>
       <c r="Q19">
-        <v>0.9966296247178867</v>
+        <v>0.9744719355614034</v>
       </c>
       <c r="R19">
-        <v>0.9935458682382311</v>
+        <v>0.9459130677236842</v>
       </c>
       <c r="S19">
-        <v>0.9935458682382311</v>
+        <v>0.9459130677236842</v>
       </c>
       <c r="T19">
-        <v>1.001331326648409</v>
+        <v>1.045370999798245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.060289838947369</v>
+      </c>
+      <c r="D20">
+        <v>0.3333293631578947</v>
+      </c>
+      <c r="E20">
+        <v>0.3333293631578947</v>
+      </c>
+      <c r="F20">
+        <v>1.401508654736842</v>
+      </c>
+      <c r="G20">
+        <v>1.401508654736842</v>
+      </c>
+      <c r="H20">
+        <v>0.6720476578947369</v>
+      </c>
+      <c r="I20">
+        <v>1.100961523157895</v>
+      </c>
+      <c r="J20">
+        <v>1.158529273684211</v>
+      </c>
+      <c r="K20">
+        <v>1.401508654736842</v>
+      </c>
+      <c r="L20">
+        <v>1.060289838947369</v>
+      </c>
+      <c r="M20">
+        <v>0.6968096010526317</v>
+      </c>
+      <c r="N20">
+        <v>0.6968096010526317</v>
+      </c>
+      <c r="O20">
+        <v>0.6885556200000001</v>
+      </c>
+      <c r="P20">
+        <v>0.9317092856140352</v>
+      </c>
+      <c r="Q20">
+        <v>0.9317092856140352</v>
+      </c>
+      <c r="R20">
+        <v>1.049159127894737</v>
+      </c>
+      <c r="S20">
+        <v>1.049159127894737</v>
+      </c>
+      <c r="T20">
+        <v>0.9544443852631579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9159800444280666</v>
+      </c>
+      <c r="D21">
+        <v>1.63771546562962</v>
+      </c>
+      <c r="E21">
+        <v>1.63771546562962</v>
+      </c>
+      <c r="F21">
+        <v>0.7501841524247995</v>
+      </c>
+      <c r="G21">
+        <v>0.7501841524247995</v>
+      </c>
+      <c r="H21">
+        <v>1.243374808094663</v>
+      </c>
+      <c r="I21">
+        <v>0.9228204328098139</v>
+      </c>
+      <c r="J21">
+        <v>0.8674354756491461</v>
+      </c>
+      <c r="K21">
+        <v>0.7501841524247995</v>
+      </c>
+      <c r="L21">
+        <v>0.9159800444280666</v>
+      </c>
+      <c r="M21">
+        <v>1.276847755028843</v>
+      </c>
+      <c r="N21">
+        <v>1.276847755028843</v>
+      </c>
+      <c r="O21">
+        <v>1.265690106050783</v>
+      </c>
+      <c r="P21">
+        <v>1.101293220827495</v>
+      </c>
+      <c r="Q21">
+        <v>1.101293220827495</v>
+      </c>
+      <c r="R21">
+        <v>1.013515953726821</v>
+      </c>
+      <c r="S21">
+        <v>1.013515953726821</v>
+      </c>
+      <c r="T21">
+        <v>1.056251729839351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9817792847120264</v>
+      </c>
+      <c r="D22">
+        <v>0.9738478690681243</v>
+      </c>
+      <c r="E22">
+        <v>0.9738478690681243</v>
+      </c>
+      <c r="F22">
+        <v>0.9900428410959422</v>
+      </c>
+      <c r="G22">
+        <v>0.9900428410959422</v>
+      </c>
+      <c r="H22">
+        <v>1.075123391084751</v>
+      </c>
+      <c r="I22">
+        <v>0.8182991208147528</v>
+      </c>
+      <c r="J22">
+        <v>0.9842458139748651</v>
+      </c>
+      <c r="K22">
+        <v>0.9900428410959422</v>
+      </c>
+      <c r="L22">
+        <v>0.9817792847120264</v>
+      </c>
+      <c r="M22">
+        <v>0.9778135768900753</v>
+      </c>
+      <c r="N22">
+        <v>0.9778135768900753</v>
+      </c>
+      <c r="O22">
+        <v>1.010250181621634</v>
+      </c>
+      <c r="P22">
+        <v>0.9818899982920309</v>
+      </c>
+      <c r="Q22">
+        <v>0.9818899982920309</v>
+      </c>
+      <c r="R22">
+        <v>0.9839282089930087</v>
+      </c>
+      <c r="S22">
+        <v>0.9839282089930087</v>
+      </c>
+      <c r="T22">
+        <v>0.9705563867917436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9846342279396676</v>
+      </c>
+      <c r="D23">
+        <v>1.077850615863723</v>
+      </c>
+      <c r="E23">
+        <v>1.077850615863723</v>
+      </c>
+      <c r="F23">
+        <v>0.9423444188058533</v>
+      </c>
+      <c r="G23">
+        <v>0.9423444188058533</v>
+      </c>
+      <c r="H23">
+        <v>1.083254412507265</v>
+      </c>
+      <c r="I23">
+        <v>0.8743019070197312</v>
+      </c>
+      <c r="J23">
+        <v>0.9724519891830443</v>
+      </c>
+      <c r="K23">
+        <v>0.9423444188058533</v>
+      </c>
+      <c r="L23">
+        <v>0.9846342279396676</v>
+      </c>
+      <c r="M23">
+        <v>1.031242421901695</v>
+      </c>
+      <c r="N23">
+        <v>1.031242421901695</v>
+      </c>
+      <c r="O23">
+        <v>1.048579752103552</v>
+      </c>
+      <c r="P23">
+        <v>1.001609754203081</v>
+      </c>
+      <c r="Q23">
+        <v>1.001609754203081</v>
+      </c>
+      <c r="R23">
+        <v>0.9867934203537743</v>
+      </c>
+      <c r="S23">
+        <v>0.9867934203537743</v>
+      </c>
+      <c r="T23">
+        <v>0.9891395952198808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9624407429395495</v>
+      </c>
+      <c r="D24">
+        <v>1.10987825422186</v>
+      </c>
+      <c r="E24">
+        <v>1.10987825422186</v>
+      </c>
+      <c r="F24">
+        <v>1.025921695718824</v>
+      </c>
+      <c r="G24">
+        <v>1.025921695718824</v>
+      </c>
+      <c r="H24">
+        <v>1.015031001414542</v>
+      </c>
+      <c r="I24">
+        <v>1.004824163618326</v>
+      </c>
+      <c r="J24">
+        <v>0.9808753779544395</v>
+      </c>
+      <c r="K24">
+        <v>1.025921695718824</v>
+      </c>
+      <c r="L24">
+        <v>0.9624407429395495</v>
+      </c>
+      <c r="M24">
+        <v>1.036159498580705</v>
+      </c>
+      <c r="N24">
+        <v>1.036159498580705</v>
+      </c>
+      <c r="O24">
+        <v>1.029116666191983</v>
+      </c>
+      <c r="P24">
+        <v>1.032746897626744</v>
+      </c>
+      <c r="Q24">
+        <v>1.032746897626744</v>
+      </c>
+      <c r="R24">
+        <v>1.031040597149764</v>
+      </c>
+      <c r="S24">
+        <v>1.031040597149764</v>
+      </c>
+      <c r="T24">
+        <v>1.016495205977923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9679015382278267</v>
+      </c>
+      <c r="D25">
+        <v>0.3997661054178603</v>
+      </c>
+      <c r="E25">
+        <v>0.3997661054178603</v>
+      </c>
+      <c r="F25">
+        <v>1.511778857047934</v>
+      </c>
+      <c r="G25">
+        <v>1.511778857047934</v>
+      </c>
+      <c r="H25">
+        <v>0.7407660771286155</v>
+      </c>
+      <c r="I25">
+        <v>0.9087824941809745</v>
+      </c>
+      <c r="J25">
+        <v>1.126973526207679</v>
+      </c>
+      <c r="K25">
+        <v>1.511778857047934</v>
+      </c>
+      <c r="L25">
+        <v>0.9679015382278267</v>
+      </c>
+      <c r="M25">
+        <v>0.6838338218228435</v>
+      </c>
+      <c r="N25">
+        <v>0.6838338218228435</v>
+      </c>
+      <c r="O25">
+        <v>0.7028112402581007</v>
+      </c>
+      <c r="P25">
+        <v>0.9598155002312071</v>
+      </c>
+      <c r="Q25">
+        <v>0.9598155002312071</v>
+      </c>
+      <c r="R25">
+        <v>1.097806339435389</v>
+      </c>
+      <c r="S25">
+        <v>1.097806339435389</v>
+      </c>
+      <c r="T25">
+        <v>0.9426614330351484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.108543678461371</v>
+      </c>
+      <c r="D26">
+        <v>0.8981215898097888</v>
+      </c>
+      <c r="E26">
+        <v>0.8981215898097888</v>
+      </c>
+      <c r="F26">
+        <v>0.8338691443540566</v>
+      </c>
+      <c r="G26">
+        <v>0.8338691443540566</v>
+      </c>
+      <c r="H26">
+        <v>0.9478462289250306</v>
+      </c>
+      <c r="I26">
+        <v>1.221533780748853</v>
+      </c>
+      <c r="J26">
+        <v>1.028323646980706</v>
+      </c>
+      <c r="K26">
+        <v>0.8338691443540566</v>
+      </c>
+      <c r="L26">
+        <v>1.108543678461371</v>
+      </c>
+      <c r="M26">
+        <v>1.00333263413558</v>
+      </c>
+      <c r="N26">
+        <v>1.00333263413558</v>
+      </c>
+      <c r="O26">
+        <v>0.9848371657320634</v>
+      </c>
+      <c r="P26">
+        <v>0.9468448042084053</v>
+      </c>
+      <c r="Q26">
+        <v>0.9468448042084053</v>
+      </c>
+      <c r="R26">
+        <v>0.9186008892448182</v>
+      </c>
+      <c r="S26">
+        <v>0.9186008892448182</v>
+      </c>
+      <c r="T26">
+        <v>1.006373011546634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9937516021969935</v>
+      </c>
+      <c r="D27">
+        <v>1.027978256195502</v>
+      </c>
+      <c r="E27">
+        <v>1.027978256195502</v>
+      </c>
+      <c r="F27">
+        <v>1.04292406880655</v>
+      </c>
+      <c r="G27">
+        <v>1.04292406880655</v>
+      </c>
+      <c r="H27">
+        <v>0.9690277902332101</v>
+      </c>
+      <c r="I27">
+        <v>1.016312005856341</v>
+      </c>
+      <c r="J27">
+        <v>1.008173538238288</v>
+      </c>
+      <c r="K27">
+        <v>1.04292406880655</v>
+      </c>
+      <c r="L27">
+        <v>0.9937516021969935</v>
+      </c>
+      <c r="M27">
+        <v>1.010864929196248</v>
+      </c>
+      <c r="N27">
+        <v>1.010864929196248</v>
+      </c>
+      <c r="O27">
+        <v>0.9969192162085685</v>
+      </c>
+      <c r="P27">
+        <v>1.021551309066348</v>
+      </c>
+      <c r="Q27">
+        <v>1.021551309066348</v>
+      </c>
+      <c r="R27">
+        <v>1.026894499001399</v>
+      </c>
+      <c r="S27">
+        <v>1.026894499001399</v>
+      </c>
+      <c r="T27">
+        <v>1.009694543587814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.007243453691096</v>
+      </c>
+      <c r="D28">
+        <v>0.9182606490418643</v>
+      </c>
+      <c r="E28">
+        <v>0.9182606490418643</v>
+      </c>
+      <c r="F28">
+        <v>1.039691674816109</v>
+      </c>
+      <c r="G28">
+        <v>1.039691674816109</v>
+      </c>
+      <c r="H28">
+        <v>0.9684294254799596</v>
+      </c>
+      <c r="I28">
+        <v>1.011541895887034</v>
+      </c>
+      <c r="J28">
+        <v>1.015514165024228</v>
+      </c>
+      <c r="K28">
+        <v>1.039691674816109</v>
+      </c>
+      <c r="L28">
+        <v>1.007243453691096</v>
+      </c>
+      <c r="M28">
+        <v>0.9627520513664803</v>
+      </c>
+      <c r="N28">
+        <v>0.9627520513664803</v>
+      </c>
+      <c r="O28">
+        <v>0.9646445094043067</v>
+      </c>
+      <c r="P28">
+        <v>0.9883985925163565</v>
+      </c>
+      <c r="Q28">
+        <v>0.9883985925163565</v>
+      </c>
+      <c r="R28">
+        <v>1.001221863091295</v>
+      </c>
+      <c r="S28">
+        <v>1.001221863091295</v>
+      </c>
+      <c r="T28">
+        <v>0.9934468773233819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9262085387412941</v>
+      </c>
+      <c r="D29">
+        <v>1.05082753986043</v>
+      </c>
+      <c r="E29">
+        <v>1.05082753986043</v>
+      </c>
+      <c r="F29">
+        <v>1.133827513708325</v>
+      </c>
+      <c r="G29">
+        <v>1.133827513708325</v>
+      </c>
+      <c r="H29">
+        <v>1.01736556050843</v>
+      </c>
+      <c r="I29">
+        <v>0.8808104116688527</v>
+      </c>
+      <c r="J29">
+        <v>0.984116537433167</v>
+      </c>
+      <c r="K29">
+        <v>1.133827513708325</v>
+      </c>
+      <c r="L29">
+        <v>0.9262085387412941</v>
+      </c>
+      <c r="M29">
+        <v>0.9885180393008621</v>
+      </c>
+      <c r="N29">
+        <v>0.9885180393008621</v>
+      </c>
+      <c r="O29">
+        <v>0.9981338797033846</v>
+      </c>
+      <c r="P29">
+        <v>1.036954530770017</v>
+      </c>
+      <c r="Q29">
+        <v>1.036954530770017</v>
+      </c>
+      <c r="R29">
+        <v>1.061172776504594</v>
+      </c>
+      <c r="S29">
+        <v>1.061172776504594</v>
+      </c>
+      <c r="T29">
+        <v>0.998859350320083</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.068849198005687</v>
+        <v>1.033993189488527</v>
       </c>
       <c r="D4">
-        <v>0.8492744513960029</v>
+        <v>0.9253552255455051</v>
       </c>
       <c r="E4">
-        <v>0.8492744513960029</v>
+        <v>0.9253552255455051</v>
       </c>
       <c r="F4">
-        <v>0.9822040328377324</v>
+        <v>0.9876016046024259</v>
       </c>
       <c r="G4">
-        <v>0.9822040328377324</v>
+        <v>0.9876016046024259</v>
       </c>
       <c r="H4">
-        <v>0.8916426710092592</v>
+        <v>0.9575475456921637</v>
       </c>
       <c r="I4">
-        <v>1.22173989780756</v>
+        <v>1.073895936841145</v>
       </c>
       <c r="J4">
-        <v>1.043389855209019</v>
+        <v>1.020357475919998</v>
       </c>
       <c r="K4">
-        <v>0.9822040328377324</v>
+        <v>0.9876016046024259</v>
       </c>
       <c r="L4">
-        <v>1.068849198005687</v>
+        <v>1.033993189488527</v>
       </c>
       <c r="M4">
-        <v>0.9590618247008448</v>
+        <v>0.9796742075170161</v>
       </c>
       <c r="N4">
-        <v>0.9590618247008448</v>
+        <v>0.9796742075170161</v>
       </c>
       <c r="O4">
-        <v>0.9365887734703162</v>
+        <v>0.9722986535753986</v>
       </c>
       <c r="P4">
-        <v>0.9667758940798074</v>
+        <v>0.9823166732121527</v>
       </c>
       <c r="Q4">
-        <v>0.9667758940798074</v>
+        <v>0.9823166732121527</v>
       </c>
       <c r="R4">
-        <v>0.9706329287692886</v>
+        <v>0.9836379060597209</v>
       </c>
       <c r="S4">
-        <v>0.9706329287692886</v>
+        <v>0.9836379060597209</v>
       </c>
       <c r="T4">
-        <v>1.009516684377543</v>
+        <v>0.9997918296816275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.040165856786745</v>
+        <v>1.048225822991118</v>
       </c>
       <c r="D5">
-        <v>0.8980296310864576</v>
+        <v>0.3273593703136901</v>
       </c>
       <c r="E5">
-        <v>0.8980296310864576</v>
+        <v>0.3273593703136901</v>
       </c>
       <c r="F5">
-        <v>0.9953630677305467</v>
+        <v>1.430767814980414</v>
       </c>
       <c r="G5">
-        <v>0.9953630677305467</v>
+        <v>1.430767814980414</v>
       </c>
       <c r="H5">
-        <v>0.9447570561743522</v>
+        <v>0.6708985093472294</v>
       </c>
       <c r="I5">
-        <v>1.083517109884723</v>
+        <v>1.078403880759476</v>
       </c>
       <c r="J5">
-        <v>1.02690461223343</v>
+        <v>1.158686963844813</v>
       </c>
       <c r="K5">
-        <v>0.9953630677305467</v>
+        <v>1.430767814980414</v>
       </c>
       <c r="L5">
-        <v>1.040165856786745</v>
+        <v>1.048225822991118</v>
       </c>
       <c r="M5">
-        <v>0.9690977439366013</v>
+        <v>0.687792596652404</v>
       </c>
       <c r="N5">
-        <v>0.9690977439366013</v>
+        <v>0.687792596652404</v>
       </c>
       <c r="O5">
-        <v>0.960984181349185</v>
+        <v>0.6821612342173458</v>
       </c>
       <c r="P5">
-        <v>0.9778528518679165</v>
+        <v>0.9354510027617408</v>
       </c>
       <c r="Q5">
-        <v>0.9778528518679165</v>
+        <v>0.9354510027617408</v>
       </c>
       <c r="R5">
-        <v>0.982230405833574</v>
+        <v>1.059280205816409</v>
       </c>
       <c r="S5">
-        <v>0.982230405833574</v>
+        <v>1.059280205816409</v>
       </c>
       <c r="T5">
-        <v>0.9981228889827092</v>
+        <v>0.9523903937061236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.163370697750845</v>
+        <v>1.068849198005687</v>
       </c>
       <c r="D6">
-        <v>0.6868604381508305</v>
+        <v>0.8492744513960029</v>
       </c>
       <c r="E6">
-        <v>0.6868604381508305</v>
+        <v>0.8492744513960029</v>
       </c>
       <c r="F6">
-        <v>0.9101373530321807</v>
+        <v>0.9822040328377324</v>
       </c>
       <c r="G6">
-        <v>0.9101373530321807</v>
+        <v>0.9822040328377324</v>
       </c>
       <c r="H6">
-        <v>0.8264880608622697</v>
+        <v>0.8916426710092592</v>
       </c>
       <c r="I6">
-        <v>1.304539346627587</v>
+        <v>1.22173989780756</v>
       </c>
       <c r="J6">
-        <v>1.088345530646248</v>
+        <v>1.043389855209019</v>
       </c>
       <c r="K6">
-        <v>0.9101373530321807</v>
+        <v>0.9822040328377324</v>
       </c>
       <c r="L6">
-        <v>1.163370697750845</v>
+        <v>1.068849198005687</v>
       </c>
       <c r="M6">
-        <v>0.9251155679508378</v>
+        <v>0.9590618247008448</v>
       </c>
       <c r="N6">
-        <v>0.9251155679508378</v>
+        <v>0.9590618247008448</v>
       </c>
       <c r="O6">
-        <v>0.8922397322546485</v>
+        <v>0.9365887734703162</v>
       </c>
       <c r="P6">
-        <v>0.9201228296446188</v>
+        <v>0.9667758940798074</v>
       </c>
       <c r="Q6">
-        <v>0.9201228296446188</v>
+        <v>0.9667758940798074</v>
       </c>
       <c r="R6">
-        <v>0.9176264604915092</v>
+        <v>0.9706329287692886</v>
       </c>
       <c r="S6">
-        <v>0.9176264604915092</v>
+        <v>0.9706329287692886</v>
       </c>
       <c r="T6">
-        <v>0.9966235711783269</v>
+        <v>1.009516684377543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001746250990393</v>
+        <v>1.040165856786745</v>
       </c>
       <c r="D7">
-        <v>0.9835289533875223</v>
+        <v>0.8980296310864576</v>
       </c>
       <c r="E7">
-        <v>0.9835289533875223</v>
+        <v>0.8980296310864576</v>
       </c>
       <c r="F7">
-        <v>1.007357704804245</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="G7">
-        <v>1.007357704804245</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="H7">
-        <v>0.9935053582077744</v>
+        <v>0.9447570561743522</v>
       </c>
       <c r="I7">
-        <v>1.002394873263417</v>
+        <v>1.083517109884723</v>
       </c>
       <c r="J7">
-        <v>1.003359711625994</v>
+        <v>1.02690461223343</v>
       </c>
       <c r="K7">
-        <v>1.007357704804245</v>
+        <v>0.9953630677305467</v>
       </c>
       <c r="L7">
-        <v>1.001746250990393</v>
+        <v>1.040165856786745</v>
       </c>
       <c r="M7">
-        <v>0.9926376021889578</v>
+        <v>0.9690977439366013</v>
       </c>
       <c r="N7">
-        <v>0.9926376021889578</v>
+        <v>0.9690977439366013</v>
       </c>
       <c r="O7">
-        <v>0.99292685419523</v>
+        <v>0.960984181349185</v>
       </c>
       <c r="P7">
-        <v>0.9975443030607202</v>
+        <v>0.9778528518679165</v>
       </c>
       <c r="Q7">
-        <v>0.9975443030607204</v>
+        <v>0.9778528518679165</v>
       </c>
       <c r="R7">
-        <v>0.9999976534966015</v>
+        <v>0.982230405833574</v>
       </c>
       <c r="S7">
-        <v>0.9999976534966015</v>
+        <v>0.982230405833574</v>
       </c>
       <c r="T7">
-        <v>0.9986488087132243</v>
+        <v>0.9981228889827092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9995087254452814</v>
+        <v>1.163370697750845</v>
       </c>
       <c r="D8">
-        <v>0.9980822192435786</v>
+        <v>0.6868604381508305</v>
       </c>
       <c r="E8">
-        <v>0.9980822192435786</v>
+        <v>0.6868604381508305</v>
       </c>
       <c r="F8">
-        <v>1.002340113333077</v>
+        <v>0.9101373530321807</v>
       </c>
       <c r="G8">
-        <v>1.002340113333077</v>
+        <v>0.9101373530321807</v>
       </c>
       <c r="H8">
-        <v>0.9994635346055966</v>
+        <v>0.8264880608622697</v>
       </c>
       <c r="I8">
-        <v>0.9982140795159135</v>
+        <v>1.304539346627587</v>
       </c>
       <c r="J8">
-        <v>1.000349993892073</v>
+        <v>1.088345530646248</v>
       </c>
       <c r="K8">
-        <v>1.002340113333077</v>
+        <v>0.9101373530321807</v>
       </c>
       <c r="L8">
-        <v>0.9995087254452814</v>
+        <v>1.163370697750845</v>
       </c>
       <c r="M8">
-        <v>0.99879547234443</v>
+        <v>0.9251155679508378</v>
       </c>
       <c r="N8">
-        <v>0.99879547234443</v>
+        <v>0.9251155679508378</v>
       </c>
       <c r="O8">
-        <v>0.9990181597648188</v>
+        <v>0.8922397322546485</v>
       </c>
       <c r="P8">
-        <v>0.9999770193406459</v>
+        <v>0.9201228296446188</v>
       </c>
       <c r="Q8">
-        <v>0.9999770193406458</v>
+        <v>0.9201228296446188</v>
       </c>
       <c r="R8">
-        <v>1.000567792838754</v>
+        <v>0.9176264604915092</v>
       </c>
       <c r="S8">
-        <v>1.000567792838754</v>
+        <v>0.9176264604915092</v>
       </c>
       <c r="T8">
-        <v>0.9996597776725867</v>
+        <v>0.9966235711783269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003747831669749</v>
+        <v>1.001746250990393</v>
       </c>
       <c r="D9">
-        <v>0.9748632270115449</v>
+        <v>0.9835289533875223</v>
       </c>
       <c r="E9">
-        <v>0.9748632270115449</v>
+        <v>0.9835289533875223</v>
       </c>
       <c r="F9">
-        <v>1.008076540804246</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="G9">
-        <v>1.008076540804246</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="H9">
-        <v>0.9907689160690064</v>
+        <v>0.9935053582077744</v>
       </c>
       <c r="I9">
-        <v>1.005155112297771</v>
+        <v>1.002394873263417</v>
       </c>
       <c r="J9">
-        <v>1.004953677216206</v>
+        <v>1.003359711625994</v>
       </c>
       <c r="K9">
-        <v>1.008076540804246</v>
+        <v>1.007357704804245</v>
       </c>
       <c r="L9">
-        <v>1.003747831669749</v>
+        <v>1.001746250990393</v>
       </c>
       <c r="M9">
-        <v>0.989305529340647</v>
+        <v>0.9926376021889578</v>
       </c>
       <c r="N9">
-        <v>0.989305529340647</v>
+        <v>0.9926376021889578</v>
       </c>
       <c r="O9">
-        <v>0.9897933249167669</v>
+        <v>0.99292685419523</v>
       </c>
       <c r="P9">
-        <v>0.9955625331618467</v>
+        <v>0.9975443030607202</v>
       </c>
       <c r="Q9">
-        <v>0.9955625331618467</v>
+        <v>0.9975443030607204</v>
       </c>
       <c r="R9">
-        <v>0.9986910350724465</v>
+        <v>0.9999976534966015</v>
       </c>
       <c r="S9">
-        <v>0.9986910350724465</v>
+        <v>0.9999976534966015</v>
       </c>
       <c r="T9">
-        <v>0.997927550844754</v>
+        <v>0.9986488087132243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.168048409601052</v>
+        <v>0.9995087254452814</v>
       </c>
       <c r="D10">
-        <v>0.6794145105336865</v>
+        <v>0.9980822192435786</v>
       </c>
       <c r="E10">
-        <v>0.6794145105336865</v>
+        <v>0.9980822192435786</v>
       </c>
       <c r="F10">
-        <v>0.9045274758664235</v>
+        <v>1.002340113333077</v>
       </c>
       <c r="G10">
-        <v>0.9045274758664235</v>
+        <v>1.002340113333077</v>
       </c>
       <c r="H10">
-        <v>0.82435657667184</v>
+        <v>0.9994635346055966</v>
       </c>
       <c r="I10">
-        <v>1.310083299167478</v>
+        <v>0.9982140795159135</v>
       </c>
       <c r="J10">
-        <v>1.089999933438201</v>
+        <v>1.000349993892073</v>
       </c>
       <c r="K10">
-        <v>0.9045274758664235</v>
+        <v>1.002340113333077</v>
       </c>
       <c r="L10">
-        <v>1.168048409601052</v>
+        <v>0.9995087254452814</v>
       </c>
       <c r="M10">
-        <v>0.9237314600673692</v>
+        <v>0.99879547234443</v>
       </c>
       <c r="N10">
-        <v>0.9237314600673692</v>
+        <v>0.99879547234443</v>
       </c>
       <c r="O10">
-        <v>0.8906064989355261</v>
+        <v>0.9990181597648188</v>
       </c>
       <c r="P10">
-        <v>0.9173301320003873</v>
+        <v>0.9999770193406459</v>
       </c>
       <c r="Q10">
-        <v>0.9173301320003873</v>
+        <v>0.9999770193406458</v>
       </c>
       <c r="R10">
-        <v>0.9141294679668963</v>
+        <v>1.000567792838754</v>
       </c>
       <c r="S10">
-        <v>0.9141294679668963</v>
+        <v>1.000567792838754</v>
       </c>
       <c r="T10">
-        <v>0.9960717008797801</v>
+        <v>0.9996597776725867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.066946700428858</v>
+        <v>1.003747831669749</v>
       </c>
       <c r="D11">
-        <v>0.8403960508023202</v>
+        <v>0.9748632270115449</v>
       </c>
       <c r="E11">
-        <v>0.8403960508023202</v>
+        <v>0.9748632270115449</v>
       </c>
       <c r="F11">
-        <v>0.9898589539625355</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="G11">
-        <v>0.9898589539625355</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="H11">
-        <v>0.8917290420910948</v>
+        <v>0.9907689160690064</v>
       </c>
       <c r="I11">
-        <v>1.210887331600046</v>
+        <v>1.005155112297771</v>
       </c>
       <c r="J11">
-        <v>1.044291477103144</v>
+        <v>1.004953677216206</v>
       </c>
       <c r="K11">
-        <v>0.9898589539625355</v>
+        <v>1.008076540804246</v>
       </c>
       <c r="L11">
-        <v>1.066946700428858</v>
+        <v>1.003747831669749</v>
       </c>
       <c r="M11">
-        <v>0.953671375615589</v>
+        <v>0.989305529340647</v>
       </c>
       <c r="N11">
-        <v>0.953671375615589</v>
+        <v>0.989305529340647</v>
       </c>
       <c r="O11">
-        <v>0.9330239311074243</v>
+        <v>0.9897933249167669</v>
       </c>
       <c r="P11">
-        <v>0.9657339017312379</v>
+        <v>0.9955625331618467</v>
       </c>
       <c r="Q11">
-        <v>0.9657339017312379</v>
+        <v>0.9955625331618467</v>
       </c>
       <c r="R11">
-        <v>0.9717651647890623</v>
+        <v>0.9986910350724465</v>
       </c>
       <c r="S11">
-        <v>0.9717651647890623</v>
+        <v>0.9986910350724465</v>
       </c>
       <c r="T11">
-        <v>1.007351592664666</v>
+        <v>0.997927550844754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.049673912073686</v>
+        <v>1.168048409601052</v>
       </c>
       <c r="D12">
-        <v>0.8955836730421068</v>
+        <v>0.6794145105336865</v>
       </c>
       <c r="E12">
-        <v>0.8955836730421068</v>
+        <v>0.6794145105336865</v>
       </c>
       <c r="F12">
-        <v>0.9760726872947384</v>
+        <v>0.9045274758664235</v>
       </c>
       <c r="G12">
-        <v>0.9760726872947384</v>
+        <v>0.9045274758664235</v>
       </c>
       <c r="H12">
-        <v>0.9445804892947387</v>
+        <v>0.82435657667184</v>
       </c>
       <c r="I12">
-        <v>1.096722368494733</v>
+        <v>1.310083299167478</v>
       </c>
       <c r="J12">
-        <v>1.02794296696842</v>
+        <v>1.089999933438201</v>
       </c>
       <c r="K12">
-        <v>0.9760726872947384</v>
+        <v>0.9045274758664235</v>
       </c>
       <c r="L12">
-        <v>1.049673912073686</v>
+        <v>1.168048409601052</v>
       </c>
       <c r="M12">
-        <v>0.9726287925578967</v>
+        <v>0.9237314600673692</v>
       </c>
       <c r="N12">
-        <v>0.9726287925578967</v>
+        <v>0.9237314600673692</v>
       </c>
       <c r="O12">
-        <v>0.9632793581368441</v>
+        <v>0.8906064989355261</v>
       </c>
       <c r="P12">
-        <v>0.9737767574701772</v>
+        <v>0.9173301320003873</v>
       </c>
       <c r="Q12">
-        <v>0.9737767574701772</v>
+        <v>0.9173301320003873</v>
       </c>
       <c r="R12">
-        <v>0.9743507399263175</v>
+        <v>0.9141294679668963</v>
       </c>
       <c r="S12">
-        <v>0.9743507399263175</v>
+        <v>0.9141294679668963</v>
       </c>
       <c r="T12">
-        <v>0.9984293495280707</v>
+        <v>0.9960717008797801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9860538960212809</v>
+        <v>1.066946700428858</v>
       </c>
       <c r="D13">
-        <v>1.054370437174706</v>
+        <v>0.8403960508023202</v>
       </c>
       <c r="E13">
-        <v>1.054370437174706</v>
+        <v>0.8403960508023202</v>
       </c>
       <c r="F13">
-        <v>0.9815474538306964</v>
+        <v>0.9898589539625355</v>
       </c>
       <c r="G13">
-        <v>0.9815474538306964</v>
+        <v>0.9898589539625355</v>
       </c>
       <c r="H13">
-        <v>1.036186596318695</v>
+        <v>0.8917290420910948</v>
       </c>
       <c r="I13">
-        <v>0.9542605503846695</v>
+        <v>1.210887331600046</v>
       </c>
       <c r="J13">
-        <v>0.9847337279419706</v>
+        <v>1.044291477103144</v>
       </c>
       <c r="K13">
-        <v>0.9815474538306964</v>
+        <v>0.9898589539625355</v>
       </c>
       <c r="L13">
-        <v>0.9860538960212809</v>
+        <v>1.066946700428858</v>
       </c>
       <c r="M13">
-        <v>1.020212166597994</v>
+        <v>0.953671375615589</v>
       </c>
       <c r="N13">
-        <v>1.020212166597994</v>
+        <v>0.953671375615589</v>
       </c>
       <c r="O13">
-        <v>1.025536976504894</v>
+        <v>0.9330239311074243</v>
       </c>
       <c r="P13">
-        <v>1.007323929008894</v>
+        <v>0.9657339017312379</v>
       </c>
       <c r="Q13">
-        <v>1.007323929008894</v>
+        <v>0.9657339017312379</v>
       </c>
       <c r="R13">
-        <v>1.000879810214345</v>
+        <v>0.9717651647890623</v>
       </c>
       <c r="S13">
-        <v>1.000879810214345</v>
+        <v>0.9717651647890623</v>
       </c>
       <c r="T13">
-        <v>0.999525443612003</v>
+        <v>1.007351592664666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.2942121</v>
+        <v>1.049673912073686</v>
       </c>
       <c r="D14">
-        <v>0.4490890699999996</v>
+        <v>0.8955836730421068</v>
       </c>
       <c r="E14">
-        <v>0.4490890699999996</v>
+        <v>0.8955836730421068</v>
       </c>
       <c r="F14">
-        <v>0.8289786500000015</v>
+        <v>0.9760726872947384</v>
       </c>
       <c r="G14">
-        <v>0.8289786500000015</v>
+        <v>0.9760726872947384</v>
       </c>
       <c r="H14">
-        <v>0.6955921500000009</v>
+        <v>0.9445804892947387</v>
       </c>
       <c r="I14">
-        <v>1.538146999999998</v>
+        <v>1.096722368494733</v>
       </c>
       <c r="J14">
-        <v>1.1562985</v>
+        <v>1.02794296696842</v>
       </c>
       <c r="K14">
-        <v>0.8289786500000015</v>
+        <v>0.9760726872947384</v>
       </c>
       <c r="L14">
-        <v>1.2942121</v>
+        <v>1.049673912073686</v>
       </c>
       <c r="M14">
-        <v>0.8716505849999996</v>
+        <v>0.9726287925578967</v>
       </c>
       <c r="N14">
-        <v>0.8716505849999996</v>
+        <v>0.9726287925578967</v>
       </c>
       <c r="O14">
-        <v>0.81296444</v>
+        <v>0.9632793581368441</v>
       </c>
       <c r="P14">
-        <v>0.8574266066666669</v>
+        <v>0.9737767574701772</v>
       </c>
       <c r="Q14">
-        <v>0.8574266066666668</v>
+        <v>0.9737767574701772</v>
       </c>
       <c r="R14">
-        <v>0.8503146175000005</v>
+        <v>0.9743507399263175</v>
       </c>
       <c r="S14">
-        <v>0.8503146175000005</v>
+        <v>0.9743507399263175</v>
       </c>
       <c r="T14">
-        <v>0.9937195783333332</v>
+        <v>0.9984293495280707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8289786500000002</v>
+        <v>0.9860538960212809</v>
       </c>
       <c r="D15">
-        <v>0.21885897</v>
+        <v>1.054370437174706</v>
       </c>
       <c r="E15">
-        <v>0.21885897</v>
+        <v>1.054370437174706</v>
       </c>
       <c r="F15">
-        <v>1.9813918</v>
+        <v>0.9815474538306964</v>
       </c>
       <c r="G15">
-        <v>1.9813918</v>
+        <v>0.9815474538306964</v>
       </c>
       <c r="H15">
-        <v>0.6454245799999999</v>
+        <v>1.036186596318695</v>
       </c>
       <c r="I15">
-        <v>0.66920919</v>
+        <v>0.9542605503846695</v>
       </c>
       <c r="J15">
-        <v>1.1585466</v>
+        <v>0.9847337279419706</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>0.9815474538306964</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>0.9860538960212809</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>1.020212166597994</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>1.020212166597994</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>1.025536976504894</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>1.007323929008894</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>1.007323929008894</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>1.000879810214345</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>1.000879810214345</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>0.999525443612003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.538147</v>
+        <v>1.2942121</v>
       </c>
       <c r="D16">
-        <v>0.054357122</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="E16">
-        <v>0.054357122</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="F16">
-        <v>0.66920919</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="G16">
-        <v>0.66920919</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="H16">
-        <v>0.2238942</v>
+        <v>0.6955921500000009</v>
       </c>
       <c r="I16">
-        <v>2.955281</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="J16">
-        <v>1.2800742</v>
+        <v>1.1562985</v>
       </c>
       <c r="K16">
-        <v>0.66920919</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="L16">
-        <v>1.538147</v>
+        <v>1.2942121</v>
       </c>
       <c r="M16">
-        <v>0.796252061</v>
+        <v>0.8716505849999996</v>
       </c>
       <c r="N16">
-        <v>0.796252061</v>
+        <v>0.8716505849999996</v>
       </c>
       <c r="O16">
-        <v>0.6054661073333333</v>
+        <v>0.81296444</v>
       </c>
       <c r="P16">
-        <v>0.7539044373333333</v>
+        <v>0.8574266066666669</v>
       </c>
       <c r="Q16">
-        <v>0.7539044373333333</v>
+        <v>0.8574266066666668</v>
       </c>
       <c r="R16">
-        <v>0.7327306255</v>
+        <v>0.8503146175000005</v>
       </c>
       <c r="S16">
-        <v>0.7327306255</v>
+        <v>0.8503146175000005</v>
       </c>
       <c r="T16">
-        <v>1.120160452</v>
+        <v>0.9937195783333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.92895662</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="D17">
-        <v>0.78554135</v>
+        <v>0.21885897</v>
       </c>
       <c r="E17">
-        <v>0.78554135</v>
+        <v>0.21885897</v>
       </c>
       <c r="F17">
-        <v>1.2921456</v>
+        <v>1.9813918</v>
       </c>
       <c r="G17">
-        <v>1.2921456</v>
+        <v>1.9813918</v>
       </c>
       <c r="H17">
-        <v>0.9657742900000001</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I17">
-        <v>0.7030752300000001</v>
+        <v>0.66920919</v>
       </c>
       <c r="J17">
-        <v>1.0311108</v>
+        <v>1.1585466</v>
       </c>
       <c r="K17">
-        <v>1.2921456</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>0.92895662</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>0.857248985</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>0.857248985</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>0.8934240866666667</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>1.002214523333333</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>1.002214523333333</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>1.0746972925</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>1.0746972925</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>0.9511006483333334</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.040311478767123</v>
+        <v>1.538147</v>
       </c>
       <c r="D18">
-        <v>0.6927187326301371</v>
+        <v>0.054357122</v>
       </c>
       <c r="E18">
-        <v>0.6927187326301371</v>
+        <v>0.054357122</v>
       </c>
       <c r="F18">
-        <v>1.11131779369863</v>
+        <v>0.66920919</v>
       </c>
       <c r="G18">
-        <v>1.11131779369863</v>
+        <v>0.66920919</v>
       </c>
       <c r="H18">
-        <v>0.8864052336986302</v>
+        <v>0.2238942</v>
       </c>
       <c r="I18">
-        <v>1.054861025342466</v>
+        <v>2.955281</v>
       </c>
       <c r="J18">
-        <v>1.060418543013699</v>
+        <v>1.2800742</v>
       </c>
       <c r="K18">
-        <v>1.11131779369863</v>
+        <v>0.66920919</v>
       </c>
       <c r="L18">
-        <v>1.040311478767123</v>
+        <v>1.538147</v>
       </c>
       <c r="M18">
-        <v>0.86651510569863</v>
+        <v>0.796252061</v>
       </c>
       <c r="N18">
-        <v>0.86651510569863</v>
+        <v>0.796252061</v>
       </c>
       <c r="O18">
-        <v>0.8731451483652967</v>
+        <v>0.6054661073333333</v>
       </c>
       <c r="P18">
-        <v>0.94811600169863</v>
+        <v>0.7539044373333333</v>
       </c>
       <c r="Q18">
-        <v>0.94811600169863</v>
+        <v>0.7539044373333333</v>
       </c>
       <c r="R18">
-        <v>0.98891644969863</v>
+        <v>0.7327306255</v>
       </c>
       <c r="S18">
-        <v>0.98891644969863</v>
+        <v>0.7327306255</v>
       </c>
       <c r="T18">
-        <v>0.9743388011917807</v>
+        <v>1.120160452</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.115914820526316</v>
+        <v>0.92895662</v>
       </c>
       <c r="D19">
-        <v>0.9472645219473684</v>
+        <v>0.78554135</v>
       </c>
       <c r="E19">
-        <v>0.9472645219473684</v>
+        <v>0.78554135</v>
       </c>
       <c r="F19">
-        <v>0.8602364642105264</v>
+        <v>1.2921456</v>
       </c>
       <c r="G19">
-        <v>0.8602364642105264</v>
+        <v>1.2921456</v>
       </c>
       <c r="H19">
-        <v>0.8631925705263157</v>
+        <v>0.9657742900000001</v>
       </c>
       <c r="I19">
-        <v>1.445799656315789</v>
+        <v>0.7030752300000001</v>
       </c>
       <c r="J19">
-        <v>1.039817965263158</v>
+        <v>1.0311108</v>
       </c>
       <c r="K19">
-        <v>0.8602364642105264</v>
+        <v>1.2921456</v>
       </c>
       <c r="L19">
-        <v>1.115914820526316</v>
+        <v>0.92895662</v>
       </c>
       <c r="M19">
-        <v>1.031589671236842</v>
+        <v>0.857248985</v>
       </c>
       <c r="N19">
-        <v>1.031589671236842</v>
+        <v>0.857248985</v>
       </c>
       <c r="O19">
-        <v>0.9754573043333333</v>
+        <v>0.8934240866666667</v>
       </c>
       <c r="P19">
-        <v>0.9744719355614037</v>
+        <v>1.002214523333333</v>
       </c>
       <c r="Q19">
-        <v>0.9744719355614034</v>
+        <v>1.002214523333333</v>
       </c>
       <c r="R19">
-        <v>0.9459130677236842</v>
+        <v>1.0746972925</v>
       </c>
       <c r="S19">
-        <v>0.9459130677236842</v>
+        <v>1.0746972925</v>
       </c>
       <c r="T19">
-        <v>1.045370999798245</v>
+        <v>0.9511006483333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.060289838947369</v>
+        <v>1.040311478767123</v>
       </c>
       <c r="D20">
-        <v>0.3333293631578947</v>
+        <v>0.6927187326301371</v>
       </c>
       <c r="E20">
-        <v>0.3333293631578947</v>
+        <v>0.6927187326301371</v>
       </c>
       <c r="F20">
-        <v>1.401508654736842</v>
+        <v>1.11131779369863</v>
       </c>
       <c r="G20">
-        <v>1.401508654736842</v>
+        <v>1.11131779369863</v>
       </c>
       <c r="H20">
-        <v>0.6720476578947369</v>
+        <v>0.8864052336986302</v>
       </c>
       <c r="I20">
-        <v>1.100961523157895</v>
+        <v>1.054861025342466</v>
       </c>
       <c r="J20">
-        <v>1.158529273684211</v>
+        <v>1.060418543013699</v>
       </c>
       <c r="K20">
-        <v>1.401508654736842</v>
+        <v>1.11131779369863</v>
       </c>
       <c r="L20">
-        <v>1.060289838947369</v>
+        <v>1.040311478767123</v>
       </c>
       <c r="M20">
-        <v>0.6968096010526317</v>
+        <v>0.86651510569863</v>
       </c>
       <c r="N20">
-        <v>0.6968096010526317</v>
+        <v>0.86651510569863</v>
       </c>
       <c r="O20">
-        <v>0.6885556200000001</v>
+        <v>0.8731451483652967</v>
       </c>
       <c r="P20">
-        <v>0.9317092856140352</v>
+        <v>0.94811600169863</v>
       </c>
       <c r="Q20">
-        <v>0.9317092856140352</v>
+        <v>0.94811600169863</v>
       </c>
       <c r="R20">
-        <v>1.049159127894737</v>
+        <v>0.98891644969863</v>
       </c>
       <c r="S20">
-        <v>1.049159127894737</v>
+        <v>0.98891644969863</v>
       </c>
       <c r="T20">
-        <v>0.9544443852631579</v>
+        <v>0.9743388011917807</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9159800444280666</v>
+        <v>1.115914820526316</v>
       </c>
       <c r="D21">
-        <v>1.63771546562962</v>
+        <v>0.9472645219473684</v>
       </c>
       <c r="E21">
-        <v>1.63771546562962</v>
+        <v>0.9472645219473684</v>
       </c>
       <c r="F21">
-        <v>0.7501841524247995</v>
+        <v>0.8602364642105264</v>
       </c>
       <c r="G21">
-        <v>0.7501841524247995</v>
+        <v>0.8602364642105264</v>
       </c>
       <c r="H21">
-        <v>1.243374808094663</v>
+        <v>0.8631925705263157</v>
       </c>
       <c r="I21">
-        <v>0.9228204328098139</v>
+        <v>1.445799656315789</v>
       </c>
       <c r="J21">
-        <v>0.8674354756491461</v>
+        <v>1.039817965263158</v>
       </c>
       <c r="K21">
-        <v>0.7501841524247995</v>
+        <v>0.8602364642105264</v>
       </c>
       <c r="L21">
-        <v>0.9159800444280666</v>
+        <v>1.115914820526316</v>
       </c>
       <c r="M21">
-        <v>1.276847755028843</v>
+        <v>1.031589671236842</v>
       </c>
       <c r="N21">
-        <v>1.276847755028843</v>
+        <v>1.031589671236842</v>
       </c>
       <c r="O21">
-        <v>1.265690106050783</v>
+        <v>0.9754573043333333</v>
       </c>
       <c r="P21">
-        <v>1.101293220827495</v>
+        <v>0.9744719355614037</v>
       </c>
       <c r="Q21">
-        <v>1.101293220827495</v>
+        <v>0.9744719355614034</v>
       </c>
       <c r="R21">
-        <v>1.013515953726821</v>
+        <v>0.9459130677236842</v>
       </c>
       <c r="S21">
-        <v>1.013515953726821</v>
+        <v>0.9459130677236842</v>
       </c>
       <c r="T21">
-        <v>1.056251729839351</v>
+        <v>1.045370999798245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9817792847120264</v>
+        <v>1.060289838947369</v>
       </c>
       <c r="D22">
-        <v>0.9738478690681243</v>
+        <v>0.3333293631578947</v>
       </c>
       <c r="E22">
-        <v>0.9738478690681243</v>
+        <v>0.3333293631578947</v>
       </c>
       <c r="F22">
-        <v>0.9900428410959422</v>
+        <v>1.401508654736842</v>
       </c>
       <c r="G22">
-        <v>0.9900428410959422</v>
+        <v>1.401508654736842</v>
       </c>
       <c r="H22">
-        <v>1.075123391084751</v>
+        <v>0.6720476578947369</v>
       </c>
       <c r="I22">
-        <v>0.8182991208147528</v>
+        <v>1.100961523157895</v>
       </c>
       <c r="J22">
-        <v>0.9842458139748651</v>
+        <v>1.158529273684211</v>
       </c>
       <c r="K22">
-        <v>0.9900428410959422</v>
+        <v>1.401508654736842</v>
       </c>
       <c r="L22">
-        <v>0.9817792847120264</v>
+        <v>1.060289838947369</v>
       </c>
       <c r="M22">
-        <v>0.9778135768900753</v>
+        <v>0.6968096010526317</v>
       </c>
       <c r="N22">
-        <v>0.9778135768900753</v>
+        <v>0.6968096010526317</v>
       </c>
       <c r="O22">
-        <v>1.010250181621634</v>
+        <v>0.6885556200000001</v>
       </c>
       <c r="P22">
-        <v>0.9818899982920309</v>
+        <v>0.9317092856140352</v>
       </c>
       <c r="Q22">
-        <v>0.9818899982920309</v>
+        <v>0.9317092856140352</v>
       </c>
       <c r="R22">
-        <v>0.9839282089930087</v>
+        <v>1.049159127894737</v>
       </c>
       <c r="S22">
-        <v>0.9839282089930087</v>
+        <v>1.049159127894737</v>
       </c>
       <c r="T22">
-        <v>0.9705563867917436</v>
+        <v>0.9544443852631579</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9846342279396676</v>
+        <v>0.9159800444280666</v>
       </c>
       <c r="D23">
-        <v>1.077850615863723</v>
+        <v>1.63771546562962</v>
       </c>
       <c r="E23">
-        <v>1.077850615863723</v>
+        <v>1.63771546562962</v>
       </c>
       <c r="F23">
-        <v>0.9423444188058533</v>
+        <v>0.7501841524247995</v>
       </c>
       <c r="G23">
-        <v>0.9423444188058533</v>
+        <v>0.7501841524247995</v>
       </c>
       <c r="H23">
-        <v>1.083254412507265</v>
+        <v>1.243374808094663</v>
       </c>
       <c r="I23">
-        <v>0.8743019070197312</v>
+        <v>0.9228204328098139</v>
       </c>
       <c r="J23">
-        <v>0.9724519891830443</v>
+        <v>0.8674354756491461</v>
       </c>
       <c r="K23">
-        <v>0.9423444188058533</v>
+        <v>0.7501841524247995</v>
       </c>
       <c r="L23">
-        <v>0.9846342279396676</v>
+        <v>0.9159800444280666</v>
       </c>
       <c r="M23">
-        <v>1.031242421901695</v>
+        <v>1.276847755028843</v>
       </c>
       <c r="N23">
-        <v>1.031242421901695</v>
+        <v>1.276847755028843</v>
       </c>
       <c r="O23">
-        <v>1.048579752103552</v>
+        <v>1.265690106050783</v>
       </c>
       <c r="P23">
-        <v>1.001609754203081</v>
+        <v>1.101293220827495</v>
       </c>
       <c r="Q23">
-        <v>1.001609754203081</v>
+        <v>1.101293220827495</v>
       </c>
       <c r="R23">
-        <v>0.9867934203537743</v>
+        <v>1.013515953726821</v>
       </c>
       <c r="S23">
-        <v>0.9867934203537743</v>
+        <v>1.013515953726821</v>
       </c>
       <c r="T23">
-        <v>0.9891395952198808</v>
+        <v>1.056251729839351</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9624407429395495</v>
+        <v>0.9817792847120264</v>
       </c>
       <c r="D24">
-        <v>1.10987825422186</v>
+        <v>0.9738478690681243</v>
       </c>
       <c r="E24">
-        <v>1.10987825422186</v>
+        <v>0.9738478690681243</v>
       </c>
       <c r="F24">
-        <v>1.025921695718824</v>
+        <v>0.9900428410959422</v>
       </c>
       <c r="G24">
-        <v>1.025921695718824</v>
+        <v>0.9900428410959422</v>
       </c>
       <c r="H24">
-        <v>1.015031001414542</v>
+        <v>1.075123391084751</v>
       </c>
       <c r="I24">
-        <v>1.004824163618326</v>
+        <v>0.8182991208147528</v>
       </c>
       <c r="J24">
-        <v>0.9808753779544395</v>
+        <v>0.9842458139748651</v>
       </c>
       <c r="K24">
-        <v>1.025921695718824</v>
+        <v>0.9900428410959422</v>
       </c>
       <c r="L24">
-        <v>0.9624407429395495</v>
+        <v>0.9817792847120264</v>
       </c>
       <c r="M24">
-        <v>1.036159498580705</v>
+        <v>0.9778135768900753</v>
       </c>
       <c r="N24">
-        <v>1.036159498580705</v>
+        <v>0.9778135768900753</v>
       </c>
       <c r="O24">
-        <v>1.029116666191983</v>
+        <v>1.010250181621634</v>
       </c>
       <c r="P24">
-        <v>1.032746897626744</v>
+        <v>0.9818899982920309</v>
       </c>
       <c r="Q24">
-        <v>1.032746897626744</v>
+        <v>0.9818899982920309</v>
       </c>
       <c r="R24">
-        <v>1.031040597149764</v>
+        <v>0.9839282089930087</v>
       </c>
       <c r="S24">
-        <v>1.031040597149764</v>
+        <v>0.9839282089930087</v>
       </c>
       <c r="T24">
-        <v>1.016495205977923</v>
+        <v>0.9705563867917436</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9679015382278267</v>
+        <v>0.9846342279396676</v>
       </c>
       <c r="D25">
-        <v>0.3997661054178603</v>
+        <v>1.077850615863723</v>
       </c>
       <c r="E25">
-        <v>0.3997661054178603</v>
+        <v>1.077850615863723</v>
       </c>
       <c r="F25">
-        <v>1.511778857047934</v>
+        <v>0.9423444188058533</v>
       </c>
       <c r="G25">
-        <v>1.511778857047934</v>
+        <v>0.9423444188058533</v>
       </c>
       <c r="H25">
-        <v>0.7407660771286155</v>
+        <v>1.083254412507265</v>
       </c>
       <c r="I25">
-        <v>0.9087824941809745</v>
+        <v>0.8743019070197312</v>
       </c>
       <c r="J25">
-        <v>1.126973526207679</v>
+        <v>0.9724519891830443</v>
       </c>
       <c r="K25">
-        <v>1.511778857047934</v>
+        <v>0.9423444188058533</v>
       </c>
       <c r="L25">
-        <v>0.9679015382278267</v>
+        <v>0.9846342279396676</v>
       </c>
       <c r="M25">
-        <v>0.6838338218228435</v>
+        <v>1.031242421901695</v>
       </c>
       <c r="N25">
-        <v>0.6838338218228435</v>
+        <v>1.031242421901695</v>
       </c>
       <c r="O25">
-        <v>0.7028112402581007</v>
+        <v>1.048579752103552</v>
       </c>
       <c r="P25">
-        <v>0.9598155002312071</v>
+        <v>1.001609754203081</v>
       </c>
       <c r="Q25">
-        <v>0.9598155002312071</v>
+        <v>1.001609754203081</v>
       </c>
       <c r="R25">
-        <v>1.097806339435389</v>
+        <v>0.9867934203537743</v>
       </c>
       <c r="S25">
-        <v>1.097806339435389</v>
+        <v>0.9867934203537743</v>
       </c>
       <c r="T25">
-        <v>0.9426614330351484</v>
+        <v>0.9891395952198808</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.108543678461371</v>
+        <v>0.9624407429395495</v>
       </c>
       <c r="D26">
-        <v>0.8981215898097888</v>
+        <v>1.10987825422186</v>
       </c>
       <c r="E26">
-        <v>0.8981215898097888</v>
+        <v>1.10987825422186</v>
       </c>
       <c r="F26">
-        <v>0.8338691443540566</v>
+        <v>1.025921695718824</v>
       </c>
       <c r="G26">
-        <v>0.8338691443540566</v>
+        <v>1.025921695718824</v>
       </c>
       <c r="H26">
-        <v>0.9478462289250306</v>
+        <v>1.015031001414542</v>
       </c>
       <c r="I26">
-        <v>1.221533780748853</v>
+        <v>1.004824163618326</v>
       </c>
       <c r="J26">
-        <v>1.028323646980706</v>
+        <v>0.9808753779544395</v>
       </c>
       <c r="K26">
-        <v>0.8338691443540566</v>
+        <v>1.025921695718824</v>
       </c>
       <c r="L26">
-        <v>1.108543678461371</v>
+        <v>0.9624407429395495</v>
       </c>
       <c r="M26">
-        <v>1.00333263413558</v>
+        <v>1.036159498580705</v>
       </c>
       <c r="N26">
-        <v>1.00333263413558</v>
+        <v>1.036159498580705</v>
       </c>
       <c r="O26">
-        <v>0.9848371657320634</v>
+        <v>1.029116666191983</v>
       </c>
       <c r="P26">
-        <v>0.9468448042084053</v>
+        <v>1.032746897626744</v>
       </c>
       <c r="Q26">
-        <v>0.9468448042084053</v>
+        <v>1.032746897626744</v>
       </c>
       <c r="R26">
-        <v>0.9186008892448182</v>
+        <v>1.031040597149764</v>
       </c>
       <c r="S26">
-        <v>0.9186008892448182</v>
+        <v>1.031040597149764</v>
       </c>
       <c r="T26">
-        <v>1.006373011546634</v>
+        <v>1.016495205977923</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9937516021969935</v>
+        <v>0.9679015382278267</v>
       </c>
       <c r="D27">
-        <v>1.027978256195502</v>
+        <v>0.3997661054178603</v>
       </c>
       <c r="E27">
-        <v>1.027978256195502</v>
+        <v>0.3997661054178603</v>
       </c>
       <c r="F27">
-        <v>1.04292406880655</v>
+        <v>1.511778857047934</v>
       </c>
       <c r="G27">
-        <v>1.04292406880655</v>
+        <v>1.511778857047934</v>
       </c>
       <c r="H27">
-        <v>0.9690277902332101</v>
+        <v>0.7407660771286155</v>
       </c>
       <c r="I27">
-        <v>1.016312005856341</v>
+        <v>0.9087824941809745</v>
       </c>
       <c r="J27">
-        <v>1.008173538238288</v>
+        <v>1.126973526207679</v>
       </c>
       <c r="K27">
-        <v>1.04292406880655</v>
+        <v>1.511778857047934</v>
       </c>
       <c r="L27">
-        <v>0.9937516021969935</v>
+        <v>0.9679015382278267</v>
       </c>
       <c r="M27">
-        <v>1.010864929196248</v>
+        <v>0.6838338218228435</v>
       </c>
       <c r="N27">
-        <v>1.010864929196248</v>
+        <v>0.6838338218228435</v>
       </c>
       <c r="O27">
-        <v>0.9969192162085685</v>
+        <v>0.7028112402581007</v>
       </c>
       <c r="P27">
-        <v>1.021551309066348</v>
+        <v>0.9598155002312071</v>
       </c>
       <c r="Q27">
-        <v>1.021551309066348</v>
+        <v>0.9598155002312071</v>
       </c>
       <c r="R27">
-        <v>1.026894499001399</v>
+        <v>1.097806339435389</v>
       </c>
       <c r="S27">
-        <v>1.026894499001399</v>
+        <v>1.097806339435389</v>
       </c>
       <c r="T27">
-        <v>1.009694543587814</v>
+        <v>0.9426614330351484</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.007243453691096</v>
+        <v>1.108543678461371</v>
       </c>
       <c r="D28">
-        <v>0.9182606490418643</v>
+        <v>0.8981215898097888</v>
       </c>
       <c r="E28">
-        <v>0.9182606490418643</v>
+        <v>0.8981215898097888</v>
       </c>
       <c r="F28">
-        <v>1.039691674816109</v>
+        <v>0.8338691443540566</v>
       </c>
       <c r="G28">
-        <v>1.039691674816109</v>
+        <v>0.8338691443540566</v>
       </c>
       <c r="H28">
-        <v>0.9684294254799596</v>
+        <v>0.9478462289250306</v>
       </c>
       <c r="I28">
-        <v>1.011541895887034</v>
+        <v>1.221533780748853</v>
       </c>
       <c r="J28">
-        <v>1.015514165024228</v>
+        <v>1.028323646980706</v>
       </c>
       <c r="K28">
-        <v>1.039691674816109</v>
+        <v>0.8338691443540566</v>
       </c>
       <c r="L28">
-        <v>1.007243453691096</v>
+        <v>1.108543678461371</v>
       </c>
       <c r="M28">
-        <v>0.9627520513664803</v>
+        <v>1.00333263413558</v>
       </c>
       <c r="N28">
-        <v>0.9627520513664803</v>
+        <v>1.00333263413558</v>
       </c>
       <c r="O28">
-        <v>0.9646445094043067</v>
+        <v>0.9848371657320634</v>
       </c>
       <c r="P28">
-        <v>0.9883985925163565</v>
+        <v>0.9468448042084053</v>
       </c>
       <c r="Q28">
-        <v>0.9883985925163565</v>
+        <v>0.9468448042084053</v>
       </c>
       <c r="R28">
-        <v>1.001221863091295</v>
+        <v>0.9186008892448182</v>
       </c>
       <c r="S28">
-        <v>1.001221863091295</v>
+        <v>0.9186008892448182</v>
       </c>
       <c r="T28">
-        <v>0.9934468773233819</v>
+        <v>1.006373011546634</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9937516021969935</v>
+      </c>
+      <c r="D29">
+        <v>1.027978256195502</v>
+      </c>
+      <c r="E29">
+        <v>1.027978256195502</v>
+      </c>
+      <c r="F29">
+        <v>1.04292406880655</v>
+      </c>
+      <c r="G29">
+        <v>1.04292406880655</v>
+      </c>
+      <c r="H29">
+        <v>0.9690277902332101</v>
+      </c>
+      <c r="I29">
+        <v>1.016312005856341</v>
+      </c>
+      <c r="J29">
+        <v>1.008173538238288</v>
+      </c>
+      <c r="K29">
+        <v>1.04292406880655</v>
+      </c>
+      <c r="L29">
+        <v>0.9937516021969935</v>
+      </c>
+      <c r="M29">
+        <v>1.010864929196248</v>
+      </c>
+      <c r="N29">
+        <v>1.010864929196248</v>
+      </c>
+      <c r="O29">
+        <v>0.9969192162085685</v>
+      </c>
+      <c r="P29">
+        <v>1.021551309066348</v>
+      </c>
+      <c r="Q29">
+        <v>1.021551309066348</v>
+      </c>
+      <c r="R29">
+        <v>1.026894499001399</v>
+      </c>
+      <c r="S29">
+        <v>1.026894499001399</v>
+      </c>
+      <c r="T29">
+        <v>1.009694543587814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.007243453691096</v>
+      </c>
+      <c r="D30">
+        <v>0.9182606490418643</v>
+      </c>
+      <c r="E30">
+        <v>0.9182606490418643</v>
+      </c>
+      <c r="F30">
+        <v>1.039691674816109</v>
+      </c>
+      <c r="G30">
+        <v>1.039691674816109</v>
+      </c>
+      <c r="H30">
+        <v>0.9684294254799596</v>
+      </c>
+      <c r="I30">
+        <v>1.011541895887034</v>
+      </c>
+      <c r="J30">
+        <v>1.015514165024228</v>
+      </c>
+      <c r="K30">
+        <v>1.039691674816109</v>
+      </c>
+      <c r="L30">
+        <v>1.007243453691096</v>
+      </c>
+      <c r="M30">
+        <v>0.9627520513664803</v>
+      </c>
+      <c r="N30">
+        <v>0.9627520513664803</v>
+      </c>
+      <c r="O30">
+        <v>0.9646445094043067</v>
+      </c>
+      <c r="P30">
+        <v>0.9883985925163565</v>
+      </c>
+      <c r="Q30">
+        <v>0.9883985925163565</v>
+      </c>
+      <c r="R30">
+        <v>1.001221863091295</v>
+      </c>
+      <c r="S30">
+        <v>1.001221863091295</v>
+      </c>
+      <c r="T30">
+        <v>0.9934468773233819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9262085387412941</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.05082753986043</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.05082753986043</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.133827513708325</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.133827513708325</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.01736556050843</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8808104116688527</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.984116537433167</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.133827513708325</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9262085387412941</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9885180393008621</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9885180393008621</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9981338797033846</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.036954530770017</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.036954530770017</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.061172776504594</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.061172776504594</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.998859350320083</v>
       </c>
     </row>
